--- a/BackTest/2020-01-16 BackTest ELF.xlsx
+++ b/BackTest/2020-01-16 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>64.58</v>
       </c>
       <c r="C2" t="n">
-        <v>65.40000000000001</v>
+        <v>64.94</v>
       </c>
       <c r="D2" t="n">
-        <v>65.40000000000001</v>
+        <v>64.94</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>64.58</v>
       </c>
       <c r="F2" t="n">
-        <v>19644.9416</v>
+        <v>2752.2101</v>
       </c>
       <c r="G2" t="n">
-        <v>64.52350000000004</v>
+        <v>64.46283333333336</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>65</v>
+      </c>
+      <c r="C3" t="n">
         <v>65.40000000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>65.33</v>
       </c>
       <c r="D3" t="n">
         <v>65.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>65.33</v>
+        <v>65</v>
       </c>
       <c r="F3" t="n">
-        <v>7583.9729</v>
+        <v>19644.9416</v>
       </c>
       <c r="G3" t="n">
-        <v>64.57500000000003</v>
+        <v>64.52350000000004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65.34</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>65.34</v>
+        <v>65.33</v>
       </c>
       <c r="D4" t="n">
-        <v>65.34</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>65.34</v>
+        <v>65.33</v>
       </c>
       <c r="F4" t="n">
-        <v>393</v>
+        <v>7583.9729</v>
       </c>
       <c r="G4" t="n">
-        <v>64.63066666666671</v>
+        <v>64.57500000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.44</v>
+        <v>65.34</v>
       </c>
       <c r="C5" t="n">
         <v>65.34</v>
       </c>
       <c r="D5" t="n">
-        <v>66.44</v>
+        <v>65.34</v>
       </c>
       <c r="E5" t="n">
         <v>65.34</v>
       </c>
       <c r="F5" t="n">
-        <v>12682.4208</v>
+        <v>393</v>
       </c>
       <c r="G5" t="n">
-        <v>64.68633333333338</v>
+        <v>64.63066666666671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.29000000000001</v>
+        <v>66.44</v>
       </c>
       <c r="C6" t="n">
-        <v>65.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>66.44</v>
       </c>
       <c r="E6" t="n">
-        <v>65.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="F6" t="n">
-        <v>51833.45975101471</v>
+        <v>12682.4208</v>
       </c>
       <c r="G6" t="n">
-        <v>64.74533333333338</v>
+        <v>64.68633333333338</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.90000000000001</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>65.92</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>65.92</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>33151.1674489853</v>
+        <v>51833.45975101471</v>
       </c>
       <c r="G7" t="n">
-        <v>64.79033333333338</v>
+        <v>64.74533333333338</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>66.61</v>
+        <v>65.92</v>
       </c>
       <c r="D8" t="n">
-        <v>67.8</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>66.40000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="F8" t="n">
-        <v>1810.32</v>
+        <v>33151.1674489853</v>
       </c>
       <c r="G8" t="n">
-        <v>64.85050000000005</v>
+        <v>64.79033333333338</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.69</v>
+        <v>67.8</v>
       </c>
       <c r="C9" t="n">
-        <v>68.09999999999999</v>
+        <v>66.61</v>
       </c>
       <c r="D9" t="n">
-        <v>68.09999999999999</v>
+        <v>67.8</v>
       </c>
       <c r="E9" t="n">
-        <v>66.51000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>60791.3834</v>
+        <v>1810.32</v>
       </c>
       <c r="G9" t="n">
-        <v>64.93216666666672</v>
+        <v>64.85050000000005</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>67.69</v>
       </c>
       <c r="C10" t="n">
-        <v>67.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>67.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1041.9487</v>
+        <v>60791.3834</v>
       </c>
       <c r="G10" t="n">
-        <v>64.99383333333338</v>
+        <v>64.93216666666672</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.11</v>
+        <v>68</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>67.11</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>26325.8631</v>
+        <v>1041.9487</v>
       </c>
       <c r="G11" t="n">
-        <v>65.05383333333337</v>
+        <v>64.99383333333338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="C12" t="n">
         <v>67</v>
-      </c>
-      <c r="C12" t="n">
-        <v>67.11</v>
       </c>
       <c r="D12" t="n">
         <v>67.11</v>
       </c>
       <c r="E12" t="n">
-        <v>66.62</v>
+        <v>67</v>
       </c>
       <c r="F12" t="n">
-        <v>10724.6849</v>
+        <v>26325.8631</v>
       </c>
       <c r="G12" t="n">
-        <v>65.11766666666671</v>
+        <v>65.05383333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.95999999999999</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>66.70999999999999</v>
+        <v>67.11</v>
       </c>
       <c r="D13" t="n">
-        <v>68.41</v>
+        <v>67.11</v>
       </c>
       <c r="E13" t="n">
-        <v>66.70999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="F13" t="n">
-        <v>112006.9757</v>
+        <v>10724.6849</v>
       </c>
       <c r="G13" t="n">
-        <v>65.15783333333337</v>
+        <v>65.11766666666671</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.72</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>66.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>66.72</v>
+        <v>68.41</v>
       </c>
       <c r="E14" t="n">
-        <v>66.72</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>2951.9841</v>
+        <v>112006.9757</v>
       </c>
       <c r="G14" t="n">
-        <v>65.19816666666671</v>
+        <v>65.15783333333337</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.90000000000001</v>
+        <v>66.72</v>
       </c>
       <c r="C15" t="n">
-        <v>68.2</v>
+        <v>66.72</v>
       </c>
       <c r="D15" t="n">
-        <v>68.2</v>
+        <v>66.72</v>
       </c>
       <c r="E15" t="n">
-        <v>67.90000000000001</v>
+        <v>66.72</v>
       </c>
       <c r="F15" t="n">
-        <v>23766.5541</v>
+        <v>2951.9841</v>
       </c>
       <c r="G15" t="n">
-        <v>65.26150000000003</v>
+        <v>65.19816666666671</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68.29000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>68.56</v>
+        <v>68.2</v>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68.2</v>
       </c>
       <c r="E16" t="n">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>116389.5229142029</v>
+        <v>23766.5541</v>
       </c>
       <c r="G16" t="n">
-        <v>65.31400000000004</v>
+        <v>65.26150000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="C17" t="n">
         <v>68.56</v>
       </c>
-      <c r="C17" t="n">
-        <v>68.34999999999999</v>
-      </c>
       <c r="D17" t="n">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2196.9054</v>
+        <v>116389.5229142029</v>
       </c>
       <c r="G17" t="n">
-        <v>65.35483333333336</v>
+        <v>65.31400000000004</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="C18" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="C18" t="n">
-        <v>66.73</v>
-      </c>
       <c r="D18" t="n">
-        <v>68.34999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>66.73</v>
+        <v>68.3</v>
       </c>
       <c r="F18" t="n">
-        <v>40417.0458</v>
+        <v>2196.9054</v>
       </c>
       <c r="G18" t="n">
-        <v>65.37533333333336</v>
+        <v>65.35483333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68.3</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>68.3</v>
+        <v>66.73</v>
       </c>
       <c r="D19" t="n">
-        <v>68.3</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>68.3</v>
+        <v>66.73</v>
       </c>
       <c r="F19" t="n">
-        <v>213.245</v>
+        <v>40417.0458</v>
       </c>
       <c r="G19" t="n">
-        <v>65.42200000000004</v>
+        <v>65.37533333333336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="C20" t="n">
-        <v>68.19</v>
+        <v>68.3</v>
       </c>
       <c r="D20" t="n">
-        <v>69.2</v>
+        <v>68.3</v>
       </c>
       <c r="E20" t="n">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="F20" t="n">
-        <v>81856.8415857971</v>
+        <v>213.245</v>
       </c>
       <c r="G20" t="n">
-        <v>65.46683333333337</v>
+        <v>65.42200000000004</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
-        <v>68.3</v>
+        <v>68.19</v>
       </c>
       <c r="D21" t="n">
-        <v>68.98999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E21" t="n">
-        <v>68.3</v>
+        <v>68</v>
       </c>
       <c r="F21" t="n">
-        <v>49194.8763</v>
+        <v>81856.8415857971</v>
       </c>
       <c r="G21" t="n">
-        <v>65.51350000000004</v>
+        <v>65.46683333333337</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68.31999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C22" t="n">
-        <v>68.86</v>
+        <v>68.3</v>
       </c>
       <c r="D22" t="n">
-        <v>68.86</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>68.31999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="F22" t="n">
-        <v>61532.4247</v>
+        <v>49194.8763</v>
       </c>
       <c r="G22" t="n">
-        <v>65.5951666666667</v>
+        <v>65.51350000000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="C23" t="n">
         <v>68.86</v>
       </c>
-      <c r="C23" t="n">
-        <v>68.90000000000001</v>
-      </c>
       <c r="D23" t="n">
-        <v>68.90000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="E23" t="n">
-        <v>68.86</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>15305.7866</v>
+        <v>61532.4247</v>
       </c>
       <c r="G23" t="n">
-        <v>65.67750000000004</v>
+        <v>65.5951666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>68.90000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="C24" t="n">
         <v>68.90000000000001</v>
@@ -1212,13 +1212,13 @@
         <v>68.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>68.90000000000001</v>
+        <v>68.86</v>
       </c>
       <c r="F24" t="n">
-        <v>21851.95</v>
+        <v>15305.7866</v>
       </c>
       <c r="G24" t="n">
-        <v>65.73700000000004</v>
+        <v>65.67750000000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>68.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D25" t="n">
         <v>68.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>68.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>4192.0696</v>
+        <v>21851.95</v>
       </c>
       <c r="G25" t="n">
-        <v>65.81033333333338</v>
+        <v>65.73700000000004</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68.43000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>69.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>68.31999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>55312.45458355395</v>
+        <v>4192.0696</v>
       </c>
       <c r="G26" t="n">
-        <v>65.90950000000004</v>
+        <v>65.81033333333338</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69.40000000000001</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>68.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69.5</v>
       </c>
       <c r="E27" t="n">
-        <v>68.31</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>50655.46640140319</v>
+        <v>55312.45458355395</v>
       </c>
       <c r="G27" t="n">
-        <v>65.98933333333338</v>
+        <v>65.90950000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="C28" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="C28" t="n">
-        <v>69.47</v>
-      </c>
       <c r="D28" t="n">
-        <v>69.89</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>68.40000000000001</v>
+        <v>68.31</v>
       </c>
       <c r="F28" t="n">
-        <v>2425.379</v>
+        <v>50655.46640140319</v>
       </c>
       <c r="G28" t="n">
-        <v>66.08700000000003</v>
+        <v>65.98933333333338</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69.56999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>69.84</v>
+        <v>69.47</v>
       </c>
       <c r="D29" t="n">
-        <v>69.84</v>
+        <v>69.89</v>
       </c>
       <c r="E29" t="n">
-        <v>69.56999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>38545.9248</v>
+        <v>2425.379</v>
       </c>
       <c r="G29" t="n">
-        <v>66.19333333333337</v>
+        <v>66.08700000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.5</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="D30" t="n">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="E30" t="n">
-        <v>68.5</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>721</v>
+        <v>38545.9248</v>
       </c>
       <c r="G30" t="n">
-        <v>66.29983333333337</v>
+        <v>66.19333333333337</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69.7</v>
+        <v>68.5</v>
       </c>
       <c r="C31" t="n">
-        <v>68.41</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>69.8</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="F31" t="n">
-        <v>16856.3391</v>
+        <v>721</v>
       </c>
       <c r="G31" t="n">
-        <v>66.3981666666667</v>
+        <v>66.29983333333337</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>69.7</v>
       </c>
       <c r="C32" t="n">
-        <v>69.7</v>
+        <v>68.41</v>
       </c>
       <c r="D32" t="n">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="E32" t="n">
-        <v>68.43000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="F32" t="n">
-        <v>11923.9869</v>
+        <v>16856.3391</v>
       </c>
       <c r="G32" t="n">
-        <v>66.50033333333336</v>
+        <v>66.3981666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69.69</v>
+        <v>69.7</v>
       </c>
       <c r="C33" t="n">
-        <v>69.95999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="D33" t="n">
-        <v>70</v>
+        <v>69.7</v>
       </c>
       <c r="E33" t="n">
-        <v>69.69</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>41149.938</v>
+        <v>11923.9869</v>
       </c>
       <c r="G33" t="n">
-        <v>66.60683333333336</v>
+        <v>66.50033333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>69.69</v>
       </c>
       <c r="C34" t="n">
-        <v>69.95</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="D34" t="n">
         <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>69.95</v>
+        <v>69.69</v>
       </c>
       <c r="F34" t="n">
-        <v>16719.94211504286</v>
+        <v>41149.938</v>
       </c>
       <c r="G34" t="n">
-        <v>66.71250000000002</v>
+        <v>66.60683333333336</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.11</v>
+        <v>70</v>
       </c>
       <c r="C35" t="n">
+        <v>69.95</v>
+      </c>
+      <c r="D35" t="n">
         <v>70</v>
       </c>
-      <c r="D35" t="n">
-        <v>70.01000000000001</v>
-      </c>
       <c r="E35" t="n">
-        <v>69</v>
+        <v>69.95</v>
       </c>
       <c r="F35" t="n">
-        <v>35420.46538371428</v>
+        <v>16719.94211504286</v>
       </c>
       <c r="G35" t="n">
-        <v>66.81400000000002</v>
+        <v>66.71250000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>69.11</v>
+      </c>
+      <c r="C36" t="n">
         <v>70</v>
-      </c>
-      <c r="C36" t="n">
-        <v>70.01000000000001</v>
       </c>
       <c r="D36" t="n">
         <v>70.01000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" t="n">
-        <v>37316.3362</v>
+        <v>35420.46538371428</v>
       </c>
       <c r="G36" t="n">
-        <v>66.9156666666667</v>
+        <v>66.81400000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>70</v>
+      </c>
+      <c r="C37" t="n">
         <v>70.01000000000001</v>
-      </c>
-      <c r="C37" t="n">
-        <v>70</v>
       </c>
       <c r="D37" t="n">
         <v>70.01000000000001</v>
@@ -1670,10 +1670,10 @@
         <v>70</v>
       </c>
       <c r="F37" t="n">
-        <v>6286.1882</v>
+        <v>37316.3362</v>
       </c>
       <c r="G37" t="n">
-        <v>67.02283333333335</v>
+        <v>66.9156666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.42</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>69.41</v>
+        <v>70</v>
       </c>
       <c r="D38" t="n">
-        <v>69.42</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>69.41</v>
+        <v>70</v>
       </c>
       <c r="F38" t="n">
-        <v>47074.6088</v>
+        <v>6286.1882</v>
       </c>
       <c r="G38" t="n">
-        <v>67.11300000000001</v>
+        <v>67.02283333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69.41</v>
+        <v>69.42</v>
       </c>
       <c r="C39" t="n">
         <v>69.41</v>
       </c>
       <c r="D39" t="n">
-        <v>69.41</v>
+        <v>69.42</v>
       </c>
       <c r="E39" t="n">
         <v>69.41</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1206</v>
+        <v>47074.6088</v>
       </c>
       <c r="G39" t="n">
-        <v>67.19266666666668</v>
+        <v>67.11300000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>69.41</v>
       </c>
       <c r="C40" t="n">
-        <v>69.29000000000001</v>
+        <v>69.41</v>
       </c>
       <c r="D40" t="n">
         <v>69.41</v>
       </c>
       <c r="E40" t="n">
-        <v>69.29000000000001</v>
+        <v>69.41</v>
       </c>
       <c r="F40" t="n">
-        <v>1180.6514</v>
+        <v>0.1206</v>
       </c>
       <c r="G40" t="n">
-        <v>67.26416666666668</v>
+        <v>67.19266666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>69.28</v>
+        <v>69.41</v>
       </c>
       <c r="C41" t="n">
-        <v>69.09999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>69.79000000000001</v>
+        <v>69.41</v>
       </c>
       <c r="E41" t="n">
-        <v>69.09999999999999</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>2966.2551</v>
+        <v>1180.6514</v>
       </c>
       <c r="G41" t="n">
-        <v>67.32683333333335</v>
+        <v>67.26416666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>69.09999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C42" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>69.09999999999999</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>69.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>13905.5919</v>
+        <v>2966.2551</v>
       </c>
       <c r="G42" t="n">
-        <v>67.38600000000002</v>
+        <v>67.32683333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>69.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>69.11</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>69.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>69.11</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>5932.3408</v>
+        <v>13905.5919</v>
       </c>
       <c r="G43" t="n">
-        <v>67.43500000000002</v>
+        <v>67.38600000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69.48999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="C44" t="n">
-        <v>69.48999999999999</v>
+        <v>69.11</v>
       </c>
       <c r="D44" t="n">
-        <v>69.48999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E44" t="n">
-        <v>69.48999999999999</v>
+        <v>69.11</v>
       </c>
       <c r="F44" t="n">
-        <v>6326.2984</v>
+        <v>5932.3408</v>
       </c>
       <c r="G44" t="n">
-        <v>67.49033333333335</v>
+        <v>67.43500000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>70</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>70</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>70</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>70</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>9570.8945</v>
+        <v>6326.2984</v>
       </c>
       <c r="G45" t="n">
-        <v>67.54033333333335</v>
+        <v>67.49033333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>70</v>
       </c>
       <c r="F46" t="n">
-        <v>262</v>
+        <v>9570.8945</v>
       </c>
       <c r="G46" t="n">
-        <v>67.57866666666669</v>
+        <v>67.54033333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>70</v>
       </c>
       <c r="F47" t="n">
-        <v>5210.6929</v>
+        <v>262</v>
       </c>
       <c r="G47" t="n">
-        <v>67.61700000000002</v>
+        <v>67.57866666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="C48" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="E48" t="n">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="F48" t="n">
-        <v>29031.98637011035</v>
+        <v>5210.6929</v>
       </c>
       <c r="G48" t="n">
-        <v>67.69533333333335</v>
+        <v>67.61700000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="C49" t="n">
-        <v>70.2</v>
+        <v>72.5</v>
       </c>
       <c r="D49" t="n">
-        <v>70.2</v>
+        <v>72.5</v>
       </c>
       <c r="E49" t="n">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="F49" t="n">
-        <v>270.693</v>
+        <v>29031.98637011035</v>
       </c>
       <c r="G49" t="n">
-        <v>67.75866666666668</v>
+        <v>67.69533333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>71.87</v>
+        <v>70.2</v>
       </c>
       <c r="C50" t="n">
-        <v>72.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="D50" t="n">
-        <v>72.5</v>
+        <v>70.2</v>
       </c>
       <c r="E50" t="n">
-        <v>70.31999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="F50" t="n">
-        <v>125101.8028</v>
+        <v>270.693</v>
       </c>
       <c r="G50" t="n">
-        <v>67.85866666666668</v>
+        <v>67.75866666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>72.59</v>
+        <v>71.87</v>
       </c>
       <c r="C51" t="n">
-        <v>72.56999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="E51" t="n">
-        <v>72.56999999999999</v>
+        <v>70.31999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>24908.44381886301</v>
+        <v>125101.8028</v>
       </c>
       <c r="G51" t="n">
-        <v>67.96300000000002</v>
+        <v>67.85866666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="C52" t="n">
-        <v>73.13</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>74.5</v>
+        <v>73</v>
       </c>
       <c r="E52" t="n">
-        <v>72.02</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>62589.17395399605</v>
+        <v>24908.44381886301</v>
       </c>
       <c r="G52" t="n">
-        <v>68.07683333333334</v>
+        <v>67.96300000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,28 +2218,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72.52</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>72.40000000000001</v>
+        <v>73.13</v>
       </c>
       <c r="D53" t="n">
-        <v>72.52</v>
+        <v>74.5</v>
       </c>
       <c r="E53" t="n">
-        <v>72.40000000000001</v>
+        <v>72.02</v>
       </c>
       <c r="F53" t="n">
-        <v>26235.7337</v>
+        <v>62589.17395399605</v>
       </c>
       <c r="G53" t="n">
-        <v>68.21000000000001</v>
+        <v>68.07683333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2253,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>72.43000000000001</v>
+        <v>72.52</v>
       </c>
       <c r="C54" t="n">
-        <v>72.43000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>72.5</v>
+        <v>72.52</v>
       </c>
       <c r="E54" t="n">
-        <v>72.43000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>14407.0688</v>
+        <v>26235.7337</v>
       </c>
       <c r="G54" t="n">
-        <v>68.33283333333334</v>
+        <v>68.21000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2291,7 +2291,7 @@
         <v>72.43000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>72.5</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="D55" t="n">
         <v>72.5</v>
@@ -2300,10 +2300,10 @@
         <v>72.43000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>3960.7191</v>
+        <v>14407.0688</v>
       </c>
       <c r="G55" t="n">
-        <v>68.47766666666666</v>
+        <v>68.33283333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>72.51000000000001</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>72.61</v>
+        <v>72.5</v>
       </c>
       <c r="D56" t="n">
-        <v>73.5</v>
+        <v>72.5</v>
       </c>
       <c r="E56" t="n">
-        <v>72.51000000000001</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>28160.4837</v>
+        <v>3960.7191</v>
       </c>
       <c r="G56" t="n">
-        <v>68.61383333333333</v>
+        <v>68.47766666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>72.51000000000001</v>
+      </c>
+      <c r="C57" t="n">
         <v>72.61</v>
       </c>
-      <c r="C57" t="n">
-        <v>72.52</v>
-      </c>
       <c r="D57" t="n">
-        <v>72.61</v>
+        <v>73.5</v>
       </c>
       <c r="E57" t="n">
         <v>72.51000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>4831.3699</v>
+        <v>28160.4837</v>
       </c>
       <c r="G57" t="n">
-        <v>68.74783333333335</v>
+        <v>68.61383333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="C58" t="n">
+        <v>72.52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="E58" t="n">
         <v>72.51000000000001</v>
       </c>
-      <c r="C58" t="n">
-        <v>72.43000000000001</v>
-      </c>
-      <c r="D58" t="n">
-        <v>72.51000000000001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>72.43000000000001</v>
-      </c>
       <c r="F58" t="n">
-        <v>36545.3874</v>
+        <v>4831.3699</v>
       </c>
       <c r="G58" t="n">
-        <v>68.89500000000001</v>
+        <v>68.74783333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.43000000000001</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>72.43000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>72.43000000000001</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>72.43000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>2369.252</v>
+        <v>36545.3874</v>
       </c>
       <c r="G59" t="n">
-        <v>69.02583333333335</v>
+        <v>68.89500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>72.43000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>72.02</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>72.5</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>72.02</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>38469.1108</v>
+        <v>2369.252</v>
       </c>
       <c r="G60" t="n">
-        <v>69.14983333333336</v>
+        <v>69.02583333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72.11</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C61" t="n">
         <v>72.02</v>
       </c>
       <c r="D61" t="n">
-        <v>72.11</v>
+        <v>72.5</v>
       </c>
       <c r="E61" t="n">
         <v>72.02</v>
       </c>
       <c r="F61" t="n">
-        <v>520.107</v>
+        <v>38469.1108</v>
       </c>
       <c r="G61" t="n">
-        <v>69.26783333333337</v>
+        <v>69.14983333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="C62" t="n">
         <v>72.02</v>
       </c>
-      <c r="C62" t="n">
-        <v>71.01000000000001</v>
-      </c>
       <c r="D62" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="E62" t="n">
         <v>72.02</v>
       </c>
-      <c r="E62" t="n">
-        <v>71</v>
-      </c>
       <c r="F62" t="n">
-        <v>37109.13531886302</v>
+        <v>520.107</v>
       </c>
       <c r="G62" t="n">
-        <v>69.36133333333338</v>
+        <v>69.26783333333337</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C63" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E63" t="n">
         <v>71</v>
       </c>
-      <c r="C63" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="D63" t="n">
-        <v>71</v>
-      </c>
-      <c r="E63" t="n">
-        <v>70.90000000000001</v>
-      </c>
       <c r="F63" t="n">
-        <v>2624.3468</v>
+        <v>37109.13531886302</v>
       </c>
       <c r="G63" t="n">
-        <v>69.45416666666671</v>
+        <v>69.36133333333338</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="C64" t="n">
-        <v>70.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="E64" t="n">
-        <v>70.09999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>21840.5189</v>
+        <v>2624.3468</v>
       </c>
       <c r="G64" t="n">
-        <v>69.53350000000005</v>
+        <v>69.45416666666671</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>70.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>70.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>70.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>70.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>442.1326</v>
+        <v>21840.5189</v>
       </c>
       <c r="G65" t="n">
-        <v>69.61283333333338</v>
+        <v>69.53350000000005</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>70.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>70.59999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>47727.6086</v>
+        <v>442.1326</v>
       </c>
       <c r="G66" t="n">
-        <v>69.69716666666673</v>
+        <v>69.61283333333338</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>70.16</v>
+        <v>70</v>
       </c>
       <c r="C67" t="n">
-        <v>70</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>70.16</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E67" t="n">
         <v>70</v>
       </c>
       <c r="F67" t="n">
-        <v>38521.9248</v>
+        <v>47727.6086</v>
       </c>
       <c r="G67" t="n">
-        <v>69.76516666666673</v>
+        <v>69.69716666666673</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>70.09999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="C68" t="n">
-        <v>69.5</v>
+        <v>70</v>
       </c>
       <c r="D68" t="n">
-        <v>70.09999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="E68" t="n">
-        <v>69.5</v>
+        <v>70</v>
       </c>
       <c r="F68" t="n">
-        <v>18927.3308</v>
+        <v>38521.9248</v>
       </c>
       <c r="G68" t="n">
-        <v>69.8133333333334</v>
+        <v>69.76516666666673</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>69.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>69.7</v>
+        <v>69.5</v>
       </c>
       <c r="D69" t="n">
-        <v>69.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>69.7</v>
+        <v>69.5</v>
       </c>
       <c r="F69" t="n">
-        <v>625</v>
+        <v>18927.3308</v>
       </c>
       <c r="G69" t="n">
-        <v>69.84000000000006</v>
+        <v>69.8133333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>69.7</v>
       </c>
       <c r="C70" t="n">
-        <v>69.61</v>
+        <v>69.7</v>
       </c>
       <c r="D70" t="n">
         <v>69.7</v>
       </c>
       <c r="E70" t="n">
-        <v>69.61</v>
+        <v>69.7</v>
       </c>
       <c r="F70" t="n">
-        <v>13708.1991</v>
+        <v>625</v>
       </c>
       <c r="G70" t="n">
-        <v>69.88183333333338</v>
+        <v>69.84000000000006</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>70.09</v>
+        <v>69.7</v>
       </c>
       <c r="C71" t="n">
-        <v>70.09</v>
+        <v>69.61</v>
       </c>
       <c r="D71" t="n">
-        <v>70.09999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="E71" t="n">
-        <v>70.09</v>
+        <v>69.61</v>
       </c>
       <c r="F71" t="n">
-        <v>21666.95</v>
+        <v>13708.1991</v>
       </c>
       <c r="G71" t="n">
-        <v>69.93333333333338</v>
+        <v>69.88183333333338</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2889,16 +2889,16 @@
         <v>70.09</v>
       </c>
       <c r="D72" t="n">
-        <v>70.09</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E72" t="n">
         <v>70.09</v>
       </c>
       <c r="F72" t="n">
-        <v>2325.1864</v>
+        <v>21666.95</v>
       </c>
       <c r="G72" t="n">
-        <v>69.98300000000005</v>
+        <v>69.93333333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>70.15000000000001</v>
+        <v>70.09</v>
       </c>
       <c r="C73" t="n">
-        <v>70.11</v>
+        <v>70.09</v>
       </c>
       <c r="D73" t="n">
-        <v>70.15000000000001</v>
+        <v>70.09</v>
       </c>
       <c r="E73" t="n">
-        <v>70.11</v>
+        <v>70.09</v>
       </c>
       <c r="F73" t="n">
-        <v>128910.7207</v>
+        <v>2325.1864</v>
       </c>
       <c r="G73" t="n">
-        <v>70.03966666666672</v>
+        <v>69.98300000000005</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>70.2</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>70.09999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="D74" t="n">
-        <v>70.2</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>70.09999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="F74" t="n">
-        <v>20883.9808</v>
+        <v>128910.7207</v>
       </c>
       <c r="G74" t="n">
-        <v>70.09600000000005</v>
+        <v>70.03966666666672</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>69.3</v>
+        <v>70.2</v>
       </c>
       <c r="C75" t="n">
-        <v>68.91</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>69.3</v>
+        <v>70.2</v>
       </c>
       <c r="E75" t="n">
-        <v>68.91</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>47137.7553</v>
+        <v>20883.9808</v>
       </c>
       <c r="G75" t="n">
-        <v>70.10783333333339</v>
+        <v>70.09600000000005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C76" t="n">
-        <v>70.59999999999999</v>
+        <v>68.91</v>
       </c>
       <c r="D76" t="n">
-        <v>70.59999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="E76" t="n">
-        <v>69.90000000000001</v>
+        <v>68.91</v>
       </c>
       <c r="F76" t="n">
-        <v>4735.6972</v>
+        <v>47137.7553</v>
       </c>
       <c r="G76" t="n">
-        <v>70.14183333333338</v>
+        <v>70.10783333333339</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>70.04000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>70.04000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>70.04000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>70.04000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>8000</v>
+        <v>4735.6972</v>
       </c>
       <c r="G77" t="n">
-        <v>70.17000000000004</v>
+        <v>70.14183333333338</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>69.93000000000001</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>68.91</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>69.93000000000001</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>68.91</v>
+        <v>70.04000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>47137.7554</v>
+        <v>8000</v>
       </c>
       <c r="G78" t="n">
-        <v>70.20633333333338</v>
+        <v>70.17000000000004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69.22</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>70</v>
+        <v>68.91</v>
       </c>
       <c r="D79" t="n">
-        <v>70</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>69.22</v>
+        <v>68.91</v>
       </c>
       <c r="F79" t="n">
-        <v>7536.3857</v>
+        <v>47137.7554</v>
       </c>
       <c r="G79" t="n">
-        <v>70.23466666666671</v>
+        <v>70.20633333333338</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69.2</v>
+        <v>69.22</v>
       </c>
       <c r="C80" t="n">
-        <v>69.06</v>
+        <v>70</v>
       </c>
       <c r="D80" t="n">
-        <v>69.2</v>
+        <v>70</v>
       </c>
       <c r="E80" t="n">
-        <v>69.06</v>
+        <v>69.22</v>
       </c>
       <c r="F80" t="n">
-        <v>4049.2001</v>
+        <v>7536.3857</v>
       </c>
       <c r="G80" t="n">
-        <v>70.24916666666672</v>
+        <v>70.23466666666671</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,32 +3198,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69.06</v>
+        <v>69.2</v>
       </c>
       <c r="C81" t="n">
         <v>69.06</v>
       </c>
       <c r="D81" t="n">
-        <v>69.06</v>
+        <v>69.2</v>
       </c>
       <c r="E81" t="n">
         <v>69.06</v>
       </c>
       <c r="F81" t="n">
-        <v>348.2597</v>
+        <v>4049.2001</v>
       </c>
       <c r="G81" t="n">
-        <v>70.2618333333334</v>
+        <v>70.24916666666672</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>70</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3245,10 +3251,10 @@
         <v>69.06</v>
       </c>
       <c r="F82" t="n">
-        <v>17044.2352</v>
+        <v>348.2597</v>
       </c>
       <c r="G82" t="n">
-        <v>70.26516666666674</v>
+        <v>70.2618333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3264,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3278,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>69.05</v>
+        <v>69.06</v>
       </c>
       <c r="C83" t="n">
-        <v>68.19</v>
+        <v>69.06</v>
       </c>
       <c r="D83" t="n">
-        <v>69.05</v>
+        <v>69.06</v>
       </c>
       <c r="E83" t="n">
-        <v>68.19</v>
+        <v>69.06</v>
       </c>
       <c r="F83" t="n">
-        <v>16562.514</v>
+        <v>17044.2352</v>
       </c>
       <c r="G83" t="n">
-        <v>70.2533333333334</v>
+        <v>70.26516666666674</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3303,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3317,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>68.19</v>
+        <v>69.05</v>
       </c>
       <c r="C84" t="n">
         <v>68.19</v>
       </c>
       <c r="D84" t="n">
-        <v>68.19</v>
+        <v>69.05</v>
       </c>
       <c r="E84" t="n">
         <v>68.19</v>
       </c>
       <c r="F84" t="n">
-        <v>6631.508714202899</v>
+        <v>16562.514</v>
       </c>
       <c r="G84" t="n">
-        <v>70.24150000000007</v>
+        <v>70.2533333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3342,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68</v>
+        <v>68.19</v>
       </c>
       <c r="C85" t="n">
-        <v>68</v>
+        <v>68.19</v>
       </c>
       <c r="D85" t="n">
-        <v>68</v>
+        <v>68.19</v>
       </c>
       <c r="E85" t="n">
-        <v>68</v>
+        <v>68.19</v>
       </c>
       <c r="F85" t="n">
-        <v>1466.5976</v>
+        <v>6631.508714202899</v>
       </c>
       <c r="G85" t="n">
-        <v>70.23483333333341</v>
+        <v>70.24150000000007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3381,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3395,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>67.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="C86" t="n">
-        <v>67.78</v>
+        <v>68</v>
       </c>
       <c r="D86" t="n">
-        <v>67.78</v>
+        <v>68</v>
       </c>
       <c r="E86" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F86" t="n">
-        <v>28149.4206</v>
+        <v>1466.5976</v>
       </c>
       <c r="G86" t="n">
-        <v>70.20616666666675</v>
+        <v>70.23483333333341</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3420,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3434,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>67.11</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>67.95999999999999</v>
+        <v>67.78</v>
       </c>
       <c r="D87" t="n">
-        <v>67.95999999999999</v>
+        <v>67.78</v>
       </c>
       <c r="E87" t="n">
-        <v>67.11</v>
+        <v>67</v>
       </c>
       <c r="F87" t="n">
-        <v>1784.9565</v>
+        <v>28149.4206</v>
       </c>
       <c r="G87" t="n">
-        <v>70.19883333333341</v>
+        <v>70.20616666666675</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3459,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3473,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>68.38</v>
+        <v>67.11</v>
       </c>
       <c r="C88" t="n">
-        <v>67.43000000000001</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>68.38</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>67.40000000000001</v>
+        <v>67.11</v>
       </c>
       <c r="F88" t="n">
-        <v>8182.2468</v>
+        <v>1784.9565</v>
       </c>
       <c r="G88" t="n">
-        <v>70.16483333333342</v>
+        <v>70.19883333333341</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3498,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3512,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>67.70999999999999</v>
+        <v>68.38</v>
       </c>
       <c r="C89" t="n">
-        <v>67.11</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>68.40000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="E89" t="n">
-        <v>67.11</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>45438.4124</v>
+        <v>8182.2468</v>
       </c>
       <c r="G89" t="n">
-        <v>70.1193333333334</v>
+        <v>70.16483333333342</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3537,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3551,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.63</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>67.77</v>
+        <v>67.11</v>
       </c>
       <c r="D90" t="n">
-        <v>68.38</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>66.53</v>
+        <v>67.11</v>
       </c>
       <c r="F90" t="n">
-        <v>25068.1678</v>
+        <v>45438.4124</v>
       </c>
       <c r="G90" t="n">
-        <v>70.08466666666673</v>
+        <v>70.1193333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3576,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3590,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>67.3</v>
+        <v>66.63</v>
       </c>
       <c r="C91" t="n">
-        <v>67.01000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="D91" t="n">
-        <v>67.3</v>
+        <v>68.38</v>
       </c>
       <c r="E91" t="n">
-        <v>67.01000000000001</v>
+        <v>66.53</v>
       </c>
       <c r="F91" t="n">
-        <v>3459.2146</v>
+        <v>25068.1678</v>
       </c>
       <c r="G91" t="n">
-        <v>70.06133333333341</v>
+        <v>70.08466666666673</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3615,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3629,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>67.01000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C92" t="n">
         <v>67.01000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>67.01000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E92" t="n">
         <v>67.01000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>367</v>
+        <v>3459.2146</v>
       </c>
       <c r="G92" t="n">
-        <v>70.01650000000009</v>
+        <v>70.06133333333341</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3654,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,36 +3668,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.95</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>68.18000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>68.31999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>66.84</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>11933.9987</v>
+        <v>367</v>
       </c>
       <c r="G93" t="n">
-        <v>69.98683333333342</v>
+        <v>70.01650000000009</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>67.01000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3659,22 +3707,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.65000000000001</v>
+        <v>66.95</v>
       </c>
       <c r="C94" t="n">
-        <v>67.66</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>67.66</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>67.65000000000001</v>
+        <v>66.84</v>
       </c>
       <c r="F94" t="n">
-        <v>9103.217199999999</v>
+        <v>11933.9987</v>
       </c>
       <c r="G94" t="n">
-        <v>69.94866666666675</v>
+        <v>69.98683333333342</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,22 +3746,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.55</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>66.55</v>
+        <v>67.66</v>
       </c>
       <c r="D95" t="n">
-        <v>66.55</v>
+        <v>67.66</v>
       </c>
       <c r="E95" t="n">
-        <v>66.55</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>187.3561</v>
+        <v>9103.217199999999</v>
       </c>
       <c r="G95" t="n">
-        <v>69.89116666666676</v>
+        <v>69.94866666666675</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3737,22 +3785,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.12</v>
+        <v>66.55</v>
       </c>
       <c r="C96" t="n">
-        <v>66.12</v>
+        <v>66.55</v>
       </c>
       <c r="D96" t="n">
-        <v>66.12</v>
+        <v>66.55</v>
       </c>
       <c r="E96" t="n">
-        <v>66.12</v>
+        <v>66.55</v>
       </c>
       <c r="F96" t="n">
-        <v>37.106</v>
+        <v>187.3561</v>
       </c>
       <c r="G96" t="n">
-        <v>69.82633333333342</v>
+        <v>69.89116666666676</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,22 +3824,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.58</v>
+        <v>66.12</v>
       </c>
       <c r="C97" t="n">
-        <v>67.58</v>
+        <v>66.12</v>
       </c>
       <c r="D97" t="n">
-        <v>67.58</v>
+        <v>66.12</v>
       </c>
       <c r="E97" t="n">
-        <v>67.58</v>
+        <v>66.12</v>
       </c>
       <c r="F97" t="n">
-        <v>7.4</v>
+        <v>37.106</v>
       </c>
       <c r="G97" t="n">
-        <v>69.78600000000009</v>
+        <v>69.82633333333342</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3815,22 +3863,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>67.2</v>
+        <v>67.58</v>
       </c>
       <c r="C98" t="n">
-        <v>67.2</v>
+        <v>67.58</v>
       </c>
       <c r="D98" t="n">
-        <v>67.2</v>
+        <v>67.58</v>
       </c>
       <c r="E98" t="n">
-        <v>67.2</v>
+        <v>67.58</v>
       </c>
       <c r="F98" t="n">
-        <v>3160.7811</v>
+        <v>7.4</v>
       </c>
       <c r="G98" t="n">
-        <v>69.74916666666675</v>
+        <v>69.78600000000009</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3857,19 +3905,19 @@
         <v>67.2</v>
       </c>
       <c r="C99" t="n">
-        <v>66.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D99" t="n">
         <v>67.2</v>
       </c>
       <c r="E99" t="n">
-        <v>66.5</v>
+        <v>67.2</v>
       </c>
       <c r="F99" t="n">
-        <v>2198.5315</v>
+        <v>3160.7811</v>
       </c>
       <c r="G99" t="n">
-        <v>69.70233333333343</v>
+        <v>69.74916666666675</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3893,22 +3941,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C100" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="C100" t="n">
-        <v>66.5</v>
-      </c>
       <c r="D100" t="n">
-        <v>66.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="E100" t="n">
         <v>66.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1750.6376</v>
+        <v>2198.5315</v>
       </c>
       <c r="G100" t="n">
-        <v>69.65583333333343</v>
+        <v>69.70233333333343</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3935,19 +3983,19 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D101" t="n">
         <v>66.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F101" t="n">
-        <v>83991.9599</v>
+        <v>1750.6376</v>
       </c>
       <c r="G101" t="n">
-        <v>69.61083333333342</v>
+        <v>69.65583333333343</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3971,22 +4019,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="C102" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="C102" t="n">
-        <v>66.3</v>
-      </c>
       <c r="D102" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E102" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="E102" t="n">
-        <v>66.3</v>
-      </c>
       <c r="F102" t="n">
-        <v>1965.8029</v>
+        <v>83991.9599</v>
       </c>
       <c r="G102" t="n">
-        <v>69.56416666666675</v>
+        <v>69.61083333333342</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4010,30 +4058,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C103" t="n">
         <v>66.3</v>
       </c>
-      <c r="C103" t="n">
-        <v>66.2</v>
-      </c>
       <c r="D103" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E103" t="n">
         <v>66.3</v>
       </c>
-      <c r="E103" t="n">
-        <v>66.2</v>
-      </c>
       <c r="F103" t="n">
-        <v>29556.4102</v>
+        <v>1965.8029</v>
       </c>
       <c r="G103" t="n">
-        <v>69.51566666666675</v>
+        <v>69.56416666666675</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>66.40000000000001</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4049,22 +4099,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C104" t="n">
         <v>66.2</v>
       </c>
-      <c r="C104" t="n">
-        <v>66</v>
-      </c>
       <c r="D104" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E104" t="n">
         <v>66.2</v>
       </c>
-      <c r="E104" t="n">
-        <v>66</v>
-      </c>
       <c r="F104" t="n">
-        <v>1771.785</v>
+        <v>29556.4102</v>
       </c>
       <c r="G104" t="n">
-        <v>69.45750000000008</v>
+        <v>69.51566666666675</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4088,22 +4138,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="C105" t="n">
         <v>66</v>
       </c>
       <c r="D105" t="n">
-        <v>66</v>
+        <v>66.2</v>
       </c>
       <c r="E105" t="n">
         <v>66</v>
       </c>
       <c r="F105" t="n">
-        <v>2929.9324</v>
+        <v>1771.785</v>
       </c>
       <c r="G105" t="n">
-        <v>69.39083333333342</v>
+        <v>69.45750000000008</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4127,22 +4177,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.52</v>
+        <v>66</v>
       </c>
       <c r="C106" t="n">
-        <v>66.48</v>
+        <v>66</v>
       </c>
       <c r="D106" t="n">
-        <v>66.48</v>
+        <v>66</v>
       </c>
       <c r="E106" t="n">
-        <v>65.51000000000001</v>
+        <v>66</v>
       </c>
       <c r="F106" t="n">
-        <v>9349.606299999999</v>
+        <v>2929.9324</v>
       </c>
       <c r="G106" t="n">
-        <v>69.33216666666675</v>
+        <v>69.39083333333342</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4169,19 +4219,19 @@
         <v>65.52</v>
       </c>
       <c r="C107" t="n">
-        <v>65.53</v>
+        <v>66.48</v>
       </c>
       <c r="D107" t="n">
-        <v>65.53</v>
+        <v>66.48</v>
       </c>
       <c r="E107" t="n">
-        <v>65.52</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>902.9256</v>
+        <v>9349.606299999999</v>
       </c>
       <c r="G107" t="n">
-        <v>69.25766666666674</v>
+        <v>69.33216666666675</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4205,22 +4255,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.87</v>
+        <v>65.52</v>
       </c>
       <c r="C108" t="n">
-        <v>65.87</v>
+        <v>65.53</v>
       </c>
       <c r="D108" t="n">
-        <v>65.87</v>
+        <v>65.53</v>
       </c>
       <c r="E108" t="n">
-        <v>65.87</v>
+        <v>65.52</v>
       </c>
       <c r="F108" t="n">
-        <v>902</v>
+        <v>902.9256</v>
       </c>
       <c r="G108" t="n">
-        <v>69.14716666666673</v>
+        <v>69.25766666666674</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4250,16 +4300,16 @@
         <v>65.87</v>
       </c>
       <c r="D109" t="n">
-        <v>66</v>
+        <v>65.87</v>
       </c>
       <c r="E109" t="n">
         <v>65.87</v>
       </c>
       <c r="F109" t="n">
-        <v>4354.199</v>
+        <v>902</v>
       </c>
       <c r="G109" t="n">
-        <v>69.07500000000007</v>
+        <v>69.14716666666673</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4283,22 +4333,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>65.88</v>
+        <v>65.87</v>
       </c>
       <c r="C110" t="n">
         <v>65.87</v>
       </c>
       <c r="D110" t="n">
-        <v>65.88</v>
+        <v>66</v>
       </c>
       <c r="E110" t="n">
         <v>65.87</v>
       </c>
       <c r="F110" t="n">
-        <v>12453.5479</v>
+        <v>4354.199</v>
       </c>
       <c r="G110" t="n">
-        <v>68.96616666666675</v>
+        <v>69.07500000000007</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4322,32 +4372,30 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.51000000000001</v>
+        <v>65.88</v>
       </c>
       <c r="C111" t="n">
-        <v>65.51000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="D111" t="n">
-        <v>65.51000000000001</v>
+        <v>65.88</v>
       </c>
       <c r="E111" t="n">
-        <v>65.51000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="F111" t="n">
-        <v>729.6032</v>
+        <v>12453.5479</v>
       </c>
       <c r="G111" t="n">
-        <v>68.84850000000009</v>
+        <v>68.96616666666675</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>65.87</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4366,29 +4414,27 @@
         <v>65.51000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D112" t="n">
         <v>65.51000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>115.8693</v>
+        <v>729.6032</v>
       </c>
       <c r="G112" t="n">
-        <v>68.72133333333342</v>
+        <v>68.84850000000009</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>65.51000000000001</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4404,32 +4450,30 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>64.86</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>66.02</v>
+        <v>65.5</v>
       </c>
       <c r="D113" t="n">
-        <v>66.03</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>64.04000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F113" t="n">
-        <v>100875.8287</v>
+        <v>115.8693</v>
       </c>
       <c r="G113" t="n">
-        <v>68.61500000000009</v>
+        <v>68.72133333333342</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>65.5</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4445,32 +4489,30 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>64.91</v>
+        <v>64.86</v>
       </c>
       <c r="C114" t="n">
-        <v>64.89</v>
+        <v>66.02</v>
       </c>
       <c r="D114" t="n">
-        <v>64.91</v>
+        <v>66.03</v>
       </c>
       <c r="E114" t="n">
-        <v>64.88</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>51883.3824</v>
+        <v>100875.8287</v>
       </c>
       <c r="G114" t="n">
-        <v>68.48933333333343</v>
+        <v>68.61500000000009</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>66.02</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4486,22 +4528,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>65</v>
+        <v>64.91</v>
       </c>
       <c r="C115" t="n">
         <v>64.89</v>
       </c>
       <c r="D115" t="n">
-        <v>65</v>
+        <v>64.91</v>
       </c>
       <c r="E115" t="n">
-        <v>64.89</v>
+        <v>64.88</v>
       </c>
       <c r="F115" t="n">
-        <v>66395.5961</v>
+        <v>51883.3824</v>
       </c>
       <c r="G115" t="n">
-        <v>68.36250000000011</v>
+        <v>68.48933333333343</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4525,22 +4567,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="C116" t="n">
         <v>64.89</v>
       </c>
       <c r="D116" t="n">
-        <v>64.89</v>
+        <v>65</v>
       </c>
       <c r="E116" t="n">
         <v>64.89</v>
       </c>
       <c r="F116" t="n">
-        <v>798.62</v>
+        <v>66395.5961</v>
       </c>
       <c r="G116" t="n">
-        <v>68.23383333333344</v>
+        <v>68.36250000000011</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4576,10 +4618,10 @@
         <v>64.89</v>
       </c>
       <c r="F117" t="n">
-        <v>1675.8585</v>
+        <v>798.62</v>
       </c>
       <c r="G117" t="n">
-        <v>68.10666666666677</v>
+        <v>68.23383333333344</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4603,22 +4645,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>64.7</v>
+        <v>64.89</v>
       </c>
       <c r="C118" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="D118" t="n">
-        <v>65</v>
+        <v>64.89</v>
       </c>
       <c r="E118" t="n">
-        <v>64.7</v>
+        <v>64.89</v>
       </c>
       <c r="F118" t="n">
-        <v>27673.6404</v>
+        <v>1675.8585</v>
       </c>
       <c r="G118" t="n">
-        <v>67.98283333333345</v>
+        <v>68.10666666666677</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4642,7 +4684,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>65</v>
+        <v>64.7</v>
       </c>
       <c r="C119" t="n">
         <v>65</v>
@@ -4651,13 +4693,13 @@
         <v>65</v>
       </c>
       <c r="E119" t="n">
-        <v>65</v>
+        <v>64.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1605.7676</v>
+        <v>27673.6404</v>
       </c>
       <c r="G119" t="n">
-        <v>67.85900000000011</v>
+        <v>67.98283333333345</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4693,10 +4735,10 @@
         <v>65</v>
       </c>
       <c r="F120" t="n">
-        <v>501.5194</v>
+        <v>1605.7676</v>
       </c>
       <c r="G120" t="n">
-        <v>67.7420000000001</v>
+        <v>67.85900000000011</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4732,20 +4774,18 @@
         <v>65</v>
       </c>
       <c r="F121" t="n">
-        <v>8528.4085</v>
+        <v>501.5194</v>
       </c>
       <c r="G121" t="n">
-        <v>67.6250000000001</v>
+        <v>67.7420000000001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>65</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4773,10 +4813,10 @@
         <v>65</v>
       </c>
       <c r="F122" t="n">
-        <v>630.189</v>
+        <v>8528.4085</v>
       </c>
       <c r="G122" t="n">
-        <v>67.52483333333342</v>
+        <v>67.6250000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4812,20 +4852,18 @@
         <v>65</v>
       </c>
       <c r="F123" t="n">
-        <v>846.681</v>
+        <v>630.189</v>
       </c>
       <c r="G123" t="n">
-        <v>67.42650000000009</v>
+        <v>67.52483333333342</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>65</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -4853,10 +4891,10 @@
         <v>65</v>
       </c>
       <c r="F124" t="n">
-        <v>20006.0018</v>
+        <v>846.681</v>
       </c>
       <c r="G124" t="n">
-        <v>67.3415000000001</v>
+        <v>67.42650000000009</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4892,10 +4930,10 @@
         <v>65</v>
       </c>
       <c r="F125" t="n">
-        <v>25</v>
+        <v>20006.0018</v>
       </c>
       <c r="G125" t="n">
-        <v>67.25650000000009</v>
+        <v>67.3415000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4919,22 +4957,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>64.98999999999999</v>
+        <v>65</v>
       </c>
       <c r="C126" t="n">
-        <v>65.01000000000001</v>
+        <v>65</v>
       </c>
       <c r="D126" t="n">
-        <v>65.01000000000001</v>
+        <v>65</v>
       </c>
       <c r="E126" t="n">
-        <v>64.98999999999999</v>
+        <v>65</v>
       </c>
       <c r="F126" t="n">
-        <v>20028.5462</v>
+        <v>25</v>
       </c>
       <c r="G126" t="n">
-        <v>67.16333333333343</v>
+        <v>67.25650000000009</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4958,22 +4996,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65.3</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>65.3</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>65.3</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>65.3</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>21132.9921</v>
+        <v>20028.5462</v>
       </c>
       <c r="G127" t="n">
-        <v>67.08500000000009</v>
+        <v>67.16333333333343</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4997,32 +5035,30 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>65.39</v>
+        <v>65.3</v>
       </c>
       <c r="C128" t="n">
-        <v>65.39</v>
+        <v>65.3</v>
       </c>
       <c r="D128" t="n">
-        <v>65.39</v>
+        <v>65.3</v>
       </c>
       <c r="E128" t="n">
-        <v>65.39</v>
+        <v>65.3</v>
       </c>
       <c r="F128" t="n">
-        <v>8</v>
+        <v>21132.9921</v>
       </c>
       <c r="G128" t="n">
-        <v>67.01650000000009</v>
+        <v>67.08500000000009</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>65.3</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5041,19 +5077,19 @@
         <v>65.39</v>
       </c>
       <c r="C129" t="n">
-        <v>65.44</v>
+        <v>65.39</v>
       </c>
       <c r="D129" t="n">
-        <v>65.45999999999999</v>
+        <v>65.39</v>
       </c>
       <c r="E129" t="n">
-        <v>64.59999999999999</v>
+        <v>65.39</v>
       </c>
       <c r="F129" t="n">
-        <v>64886.0367</v>
+        <v>8</v>
       </c>
       <c r="G129" t="n">
-        <v>66.9455000000001</v>
+        <v>67.01650000000009</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5080,29 +5116,27 @@
         <v>65.39</v>
       </c>
       <c r="C130" t="n">
-        <v>65.72</v>
+        <v>65.44</v>
       </c>
       <c r="D130" t="n">
-        <v>65.72</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>65.39</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>20434.44854615034</v>
+        <v>64886.0367</v>
       </c>
       <c r="G130" t="n">
-        <v>66.88066666666676</v>
+        <v>66.9455000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>65.44</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5118,22 +5152,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>65.65000000000001</v>
+        <v>65.39</v>
       </c>
       <c r="C131" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="D131" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="E131" t="n">
-        <v>65.65000000000001</v>
+        <v>65.39</v>
       </c>
       <c r="F131" t="n">
-        <v>23041.0529</v>
+        <v>20434.44854615034</v>
       </c>
       <c r="G131" t="n">
-        <v>66.80666666666676</v>
+        <v>66.88066666666676</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5157,22 +5191,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>65.09999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>65.09999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>65.09999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>65.09999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>83.881</v>
+        <v>23041.0529</v>
       </c>
       <c r="G132" t="n">
-        <v>66.72350000000009</v>
+        <v>66.80666666666676</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5196,22 +5230,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>65.73</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>65.73</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>65.73</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>65.73</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>10717.3424</v>
+        <v>83.881</v>
       </c>
       <c r="G133" t="n">
-        <v>66.65050000000008</v>
+        <v>66.72350000000009</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5247,10 +5281,10 @@
         <v>65.73</v>
       </c>
       <c r="F134" t="n">
-        <v>2959.9999</v>
+        <v>10717.3424</v>
       </c>
       <c r="G134" t="n">
-        <v>66.57766666666674</v>
+        <v>66.65050000000008</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5286,10 +5320,10 @@
         <v>65.73</v>
       </c>
       <c r="F135" t="n">
-        <v>1434.0536</v>
+        <v>2959.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>66.52466666666675</v>
+        <v>66.57766666666674</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5313,22 +5347,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>65.2</v>
+        <v>65.73</v>
       </c>
       <c r="C136" t="n">
-        <v>66.33</v>
+        <v>65.73</v>
       </c>
       <c r="D136" t="n">
-        <v>66.33</v>
+        <v>65.73</v>
       </c>
       <c r="E136" t="n">
-        <v>65.2</v>
+        <v>65.73</v>
       </c>
       <c r="F136" t="n">
-        <v>12317.897</v>
+        <v>1434.0536</v>
       </c>
       <c r="G136" t="n">
-        <v>66.45350000000009</v>
+        <v>66.52466666666675</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5352,22 +5386,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="C137" t="n">
-        <v>66.79000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="D137" t="n">
-        <v>66.79000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="E137" t="n">
-        <v>66.2</v>
+        <v>65.2</v>
       </c>
       <c r="F137" t="n">
-        <v>9290.4728</v>
+        <v>12317.897</v>
       </c>
       <c r="G137" t="n">
-        <v>66.39933333333342</v>
+        <v>66.45350000000009</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5391,22 +5425,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>66.7</v>
+        <v>66.2</v>
       </c>
       <c r="C138" t="n">
-        <v>66.7</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>66.7</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>66.7</v>
+        <v>66.2</v>
       </c>
       <c r="F138" t="n">
-        <v>1495.5195</v>
+        <v>9290.4728</v>
       </c>
       <c r="G138" t="n">
-        <v>66.36250000000008</v>
+        <v>66.39933333333342</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5430,22 +5464,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>65.81999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C139" t="n">
-        <v>65.81999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D139" t="n">
-        <v>65.81999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E139" t="n">
-        <v>65.81999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F139" t="n">
-        <v>525.3173</v>
+        <v>1495.5195</v>
       </c>
       <c r="G139" t="n">
-        <v>66.29283333333342</v>
+        <v>66.36250000000008</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5469,22 +5503,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>65.72</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>65.72</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>65.72</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>65.72</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>148.9002</v>
+        <v>525.3173</v>
       </c>
       <c r="G140" t="n">
-        <v>66.23716666666675</v>
+        <v>66.29283333333342</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5520,10 +5554,10 @@
         <v>65.72</v>
       </c>
       <c r="F141" t="n">
-        <v>75.7176</v>
+        <v>148.9002</v>
       </c>
       <c r="G141" t="n">
-        <v>66.18150000000009</v>
+        <v>66.23716666666675</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5547,22 +5581,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>65.5</v>
+        <v>65.72</v>
       </c>
       <c r="C142" t="n">
-        <v>66.48</v>
+        <v>65.72</v>
       </c>
       <c r="D142" t="n">
-        <v>66.48</v>
+        <v>65.72</v>
       </c>
       <c r="E142" t="n">
-        <v>65.5</v>
+        <v>65.72</v>
       </c>
       <c r="F142" t="n">
-        <v>679</v>
+        <v>75.7176</v>
       </c>
       <c r="G142" t="n">
-        <v>66.13850000000008</v>
+        <v>66.18150000000009</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5586,22 +5620,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>65.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C143" t="n">
-        <v>65.59999999999999</v>
+        <v>66.48</v>
       </c>
       <c r="D143" t="n">
-        <v>65.59999999999999</v>
+        <v>66.48</v>
       </c>
       <c r="E143" t="n">
-        <v>65.59999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F143" t="n">
-        <v>523.3824</v>
+        <v>679</v>
       </c>
       <c r="G143" t="n">
-        <v>66.09533333333341</v>
+        <v>66.13850000000008</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5625,22 +5659,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>66.29000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>66.29000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>66.29000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>66.29000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>41508.0796</v>
+        <v>523.3824</v>
       </c>
       <c r="G144" t="n">
-        <v>66.06366666666675</v>
+        <v>66.09533333333341</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5664,22 +5698,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>66.7</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>66.78</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>66.78</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>66.7</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>38665.9037</v>
+        <v>41508.0796</v>
       </c>
       <c r="G145" t="n">
-        <v>66.04333333333342</v>
+        <v>66.06366666666675</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5703,22 +5737,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C146" t="n">
         <v>66.78</v>
       </c>
-      <c r="C146" t="n">
-        <v>67.2</v>
-      </c>
       <c r="D146" t="n">
-        <v>67.3</v>
+        <v>66.78</v>
       </c>
       <c r="E146" t="n">
-        <v>66.78</v>
+        <v>66.7</v>
       </c>
       <c r="F146" t="n">
-        <v>5670.513</v>
+        <v>38665.9037</v>
       </c>
       <c r="G146" t="n">
-        <v>66.03366666666675</v>
+        <v>66.04333333333342</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5742,22 +5776,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="C147" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D147" t="n">
         <v>67.3</v>
       </c>
-      <c r="C147" t="n">
-        <v>67.48999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>67.5</v>
-      </c>
       <c r="E147" t="n">
-        <v>66.7</v>
+        <v>66.78</v>
       </c>
       <c r="F147" t="n">
-        <v>31049.2768</v>
+        <v>5670.513</v>
       </c>
       <c r="G147" t="n">
-        <v>66.02583333333341</v>
+        <v>66.03366666666675</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5781,22 +5815,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>67.64</v>
+        <v>67.3</v>
       </c>
       <c r="C148" t="n">
-        <v>67.09999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>67.98999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E148" t="n">
-        <v>66.81999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F148" t="n">
-        <v>10414.3679</v>
+        <v>31049.2768</v>
       </c>
       <c r="G148" t="n">
-        <v>66.02033333333341</v>
+        <v>66.02583333333341</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5820,22 +5854,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>67.64</v>
+      </c>
+      <c r="C149" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="C149" t="n">
-        <v>67.5</v>
-      </c>
       <c r="D149" t="n">
-        <v>67.5</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>67.02</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>33205.5528</v>
+        <v>10414.3679</v>
       </c>
       <c r="G149" t="n">
-        <v>66.0268333333334</v>
+        <v>66.02033333333341</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5859,22 +5893,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C150" t="n">
         <v>67.5</v>
       </c>
-      <c r="C150" t="n">
-        <v>68.44</v>
-      </c>
       <c r="D150" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="E150" t="n">
-        <v>67.5</v>
+        <v>67.02</v>
       </c>
       <c r="F150" t="n">
-        <v>30711.1314</v>
+        <v>33205.5528</v>
       </c>
       <c r="G150" t="n">
-        <v>66.03800000000007</v>
+        <v>66.0268333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5898,22 +5932,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>68.79000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C151" t="n">
-        <v>69.05</v>
+        <v>68.44</v>
       </c>
       <c r="D151" t="n">
-        <v>69.05</v>
+        <v>68.5</v>
       </c>
       <c r="E151" t="n">
-        <v>68.79000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F151" t="n">
-        <v>136409.8724</v>
+        <v>30711.1314</v>
       </c>
       <c r="G151" t="n">
-        <v>66.07200000000007</v>
+        <v>66.03800000000007</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5937,22 +5971,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>69.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C152" t="n">
         <v>69.05</v>
       </c>
       <c r="D152" t="n">
-        <v>69.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="E152" t="n">
-        <v>69.05</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>117450.4903</v>
+        <v>136409.8724</v>
       </c>
       <c r="G152" t="n">
-        <v>66.10600000000007</v>
+        <v>66.07200000000007</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5976,22 +6010,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>69.05</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C153" t="n">
         <v>69.05</v>
       </c>
       <c r="D153" t="n">
-        <v>69.05</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E153" t="n">
         <v>69.05</v>
       </c>
       <c r="F153" t="n">
-        <v>2994.286</v>
+        <v>117450.4903</v>
       </c>
       <c r="G153" t="n">
-        <v>66.12050000000008</v>
+        <v>66.10600000000007</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6015,22 +6049,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>69.09999999999999</v>
+        <v>69.05</v>
       </c>
       <c r="C154" t="n">
         <v>69.05</v>
       </c>
       <c r="D154" t="n">
-        <v>69.3</v>
+        <v>69.05</v>
       </c>
       <c r="E154" t="n">
         <v>69.05</v>
       </c>
       <c r="F154" t="n">
-        <v>12128.7405</v>
+        <v>2994.286</v>
       </c>
       <c r="G154" t="n">
-        <v>66.14366666666675</v>
+        <v>66.12050000000008</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6054,22 +6088,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>69.05</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C155" t="n">
         <v>69.05</v>
       </c>
       <c r="D155" t="n">
-        <v>69.05</v>
+        <v>69.3</v>
       </c>
       <c r="E155" t="n">
         <v>69.05</v>
       </c>
       <c r="F155" t="n">
-        <v>838.4503999999999</v>
+        <v>12128.7405</v>
       </c>
       <c r="G155" t="n">
-        <v>66.18533333333342</v>
+        <v>66.14366666666675</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6093,22 +6127,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>68.5</v>
+        <v>69.05</v>
       </c>
       <c r="C156" t="n">
-        <v>68.5</v>
+        <v>69.05</v>
       </c>
       <c r="D156" t="n">
-        <v>68.5</v>
+        <v>69.05</v>
       </c>
       <c r="E156" t="n">
-        <v>68.5</v>
+        <v>69.05</v>
       </c>
       <c r="F156" t="n">
-        <v>743.3680000000001</v>
+        <v>838.4503999999999</v>
       </c>
       <c r="G156" t="n">
-        <v>66.22500000000008</v>
+        <v>66.18533333333342</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6132,22 +6166,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="C157" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="D157" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="E157" t="n">
-        <v>68.41</v>
+        <v>68.5</v>
       </c>
       <c r="F157" t="n">
-        <v>10.9363</v>
+        <v>743.3680000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>66.23883333333342</v>
+        <v>66.22500000000008</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6171,22 +6205,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>68.51000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="C158" t="n">
-        <v>68.51000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="D158" t="n">
-        <v>68.51000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="E158" t="n">
-        <v>68.51000000000001</v>
+        <v>68.41</v>
       </c>
       <c r="F158" t="n">
-        <v>17502.6148</v>
+        <v>10.9363</v>
       </c>
       <c r="G158" t="n">
-        <v>66.26066666666675</v>
+        <v>66.23883333333342</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6210,22 +6244,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>68.40000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>69.05</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>69.05</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>68.40000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>14553.1245516727</v>
+        <v>17502.6148</v>
       </c>
       <c r="G159" t="n">
-        <v>66.30150000000009</v>
+        <v>66.26066666666675</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6249,22 +6283,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>68.3</v>
+        <v>69.05</v>
       </c>
       <c r="D160" t="n">
-        <v>68.3</v>
+        <v>69.05</v>
       </c>
       <c r="E160" t="n">
-        <v>68.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>92.5857</v>
+        <v>14553.1245516727</v>
       </c>
       <c r="G160" t="n">
-        <v>66.33150000000009</v>
+        <v>66.30150000000009</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6288,22 +6322,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>67.70999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="C161" t="n">
-        <v>69.04000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D161" t="n">
-        <v>69.04000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="E161" t="n">
-        <v>67.7</v>
+        <v>68.3</v>
       </c>
       <c r="F161" t="n">
-        <v>26865.02</v>
+        <v>92.5857</v>
       </c>
       <c r="G161" t="n">
-        <v>66.37550000000009</v>
+        <v>66.33150000000009</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6327,22 +6361,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>69.02</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>69.03</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>69.03</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>69.02</v>
+        <v>67.7</v>
       </c>
       <c r="F162" t="n">
-        <v>11607.9209</v>
+        <v>26865.02</v>
       </c>
       <c r="G162" t="n">
-        <v>66.42100000000009</v>
+        <v>66.37550000000009</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6366,22 +6400,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>69</v>
+        <v>69.02</v>
       </c>
       <c r="C163" t="n">
-        <v>69</v>
+        <v>69.03</v>
       </c>
       <c r="D163" t="n">
-        <v>69</v>
+        <v>69.03</v>
       </c>
       <c r="E163" t="n">
-        <v>69</v>
+        <v>69.02</v>
       </c>
       <c r="F163" t="n">
-        <v>9637.5008</v>
+        <v>11607.9209</v>
       </c>
       <c r="G163" t="n">
-        <v>66.46766666666676</v>
+        <v>66.42100000000009</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6405,22 +6439,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>69.02</v>
+        <v>69</v>
       </c>
       <c r="C164" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D164" t="n">
-        <v>69.03</v>
+        <v>69</v>
       </c>
       <c r="E164" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F164" t="n">
-        <v>7847.2617</v>
+        <v>9637.5008</v>
       </c>
       <c r="G164" t="n">
-        <v>66.5010000000001</v>
+        <v>66.46766666666676</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6444,22 +6478,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68.01000000000001</v>
+        <v>69.02</v>
       </c>
       <c r="C165" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="D165" t="n">
-        <v>68.01000000000001</v>
+        <v>69.03</v>
       </c>
       <c r="E165" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="F165" t="n">
-        <v>9.9285</v>
+        <v>7847.2617</v>
       </c>
       <c r="G165" t="n">
-        <v>66.53450000000011</v>
+        <v>66.5010000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6495,10 +6529,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F166" t="n">
-        <v>2937.9816</v>
+        <v>9.9285</v>
       </c>
       <c r="G166" t="n">
-        <v>66.5600000000001</v>
+        <v>66.53450000000011</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6534,10 +6568,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>448.0022</v>
+        <v>2937.9816</v>
       </c>
       <c r="G167" t="n">
-        <v>66.60133333333344</v>
+        <v>66.5600000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6573,10 +6607,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>1016.3048</v>
+        <v>448.0022</v>
       </c>
       <c r="G168" t="n">
-        <v>66.63700000000011</v>
+        <v>66.60133333333344</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6612,10 +6646,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>3437.59</v>
+        <v>1016.3048</v>
       </c>
       <c r="G169" t="n">
-        <v>66.67266666666679</v>
+        <v>66.63700000000011</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6639,22 +6673,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>68.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>68.98999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>68.98999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>68.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>6372.1736</v>
+        <v>3437.59</v>
       </c>
       <c r="G170" t="n">
-        <v>66.72466666666678</v>
+        <v>66.67266666666679</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6678,22 +6712,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>68.09999999999999</v>
+        <v>68.98</v>
       </c>
       <c r="C171" t="n">
-        <v>67.90000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D171" t="n">
-        <v>68.09999999999999</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>67.90000000000001</v>
+        <v>68.98</v>
       </c>
       <c r="F171" t="n">
-        <v>2133.5124</v>
+        <v>6372.1736</v>
       </c>
       <c r="G171" t="n">
-        <v>66.76450000000011</v>
+        <v>66.72466666666678</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6717,22 +6751,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>66.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D172" t="n">
-        <v>66.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>834.4915999999999</v>
+        <v>2133.5124</v>
       </c>
       <c r="G172" t="n">
-        <v>66.78616666666679</v>
+        <v>66.76450000000011</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6768,10 +6802,10 @@
         <v>66.8</v>
       </c>
       <c r="F173" t="n">
-        <v>750</v>
+        <v>834.4915999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>66.79916666666678</v>
+        <v>66.78616666666679</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6807,10 +6841,10 @@
         <v>66.8</v>
       </c>
       <c r="F174" t="n">
-        <v>141.9809</v>
+        <v>750</v>
       </c>
       <c r="G174" t="n">
-        <v>66.83100000000012</v>
+        <v>66.79916666666678</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6846,10 +6880,10 @@
         <v>66.8</v>
       </c>
       <c r="F175" t="n">
-        <v>26.25</v>
+        <v>141.9809</v>
       </c>
       <c r="G175" t="n">
-        <v>66.86283333333346</v>
+        <v>66.83100000000012</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6873,22 +6907,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>66.63</v>
+        <v>66.8</v>
       </c>
       <c r="C176" t="n">
-        <v>66.63</v>
+        <v>66.8</v>
       </c>
       <c r="D176" t="n">
-        <v>66.63</v>
+        <v>66.8</v>
       </c>
       <c r="E176" t="n">
-        <v>66.63</v>
+        <v>66.8</v>
       </c>
       <c r="F176" t="n">
-        <v>244.2775</v>
+        <v>26.25</v>
       </c>
       <c r="G176" t="n">
-        <v>66.89183333333347</v>
+        <v>66.86283333333346</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6915,19 +6949,19 @@
         <v>66.63</v>
       </c>
       <c r="C177" t="n">
-        <v>66.51000000000001</v>
+        <v>66.63</v>
       </c>
       <c r="D177" t="n">
         <v>66.63</v>
       </c>
       <c r="E177" t="n">
-        <v>66.51000000000001</v>
+        <v>66.63</v>
       </c>
       <c r="F177" t="n">
-        <v>3734.2569</v>
+        <v>244.2775</v>
       </c>
       <c r="G177" t="n">
-        <v>66.91883333333347</v>
+        <v>66.89183333333347</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6951,22 +6985,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="C178" t="n">
         <v>66.51000000000001</v>
       </c>
-      <c r="C178" t="n">
-        <v>66.5</v>
-      </c>
       <c r="D178" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="E178" t="n">
         <v>66.51000000000001</v>
       </c>
-      <c r="E178" t="n">
-        <v>66.5</v>
-      </c>
       <c r="F178" t="n">
-        <v>13366.8262</v>
+        <v>3734.2569</v>
       </c>
       <c r="G178" t="n">
-        <v>66.94383333333347</v>
+        <v>66.91883333333347</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6990,22 +7024,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>66.22</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="D179" t="n">
-        <v>66.22</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="F179" t="n">
-        <v>149599.2381</v>
+        <v>13366.8262</v>
       </c>
       <c r="G179" t="n">
-        <v>66.96050000000014</v>
+        <v>66.94383333333347</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7029,19 +7063,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>65.31999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="C180" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D180" t="n">
-        <v>65.31999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="E180" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F180" t="n">
-        <v>101324.1373</v>
+        <v>149599.2381</v>
       </c>
       <c r="G180" t="n">
         <v>66.96050000000014</v>
@@ -7068,19 +7102,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C181" t="n">
         <v>65</v>
       </c>
       <c r="D181" t="n">
-        <v>65</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E181" t="n">
         <v>65</v>
       </c>
       <c r="F181" t="n">
-        <v>19055.711</v>
+        <v>101324.1373</v>
       </c>
       <c r="G181" t="n">
         <v>66.96050000000014</v>
@@ -7116,10 +7150,10 @@
         <v>65</v>
       </c>
       <c r="E182" t="n">
-        <v>64.11</v>
+        <v>65</v>
       </c>
       <c r="F182" t="n">
-        <v>23645.8824</v>
+        <v>19055.711</v>
       </c>
       <c r="G182" t="n">
         <v>66.96050000000014</v>
@@ -7155,10 +7189,10 @@
         <v>65</v>
       </c>
       <c r="E183" t="n">
-        <v>65</v>
+        <v>64.11</v>
       </c>
       <c r="F183" t="n">
-        <v>2546.9367</v>
+        <v>23645.8824</v>
       </c>
       <c r="G183" t="n">
         <v>66.96050000000014</v>
@@ -7185,22 +7219,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>66.39</v>
+        <v>65</v>
       </c>
       <c r="C184" t="n">
-        <v>66.39</v>
+        <v>65</v>
       </c>
       <c r="D184" t="n">
-        <v>66.39</v>
+        <v>65</v>
       </c>
       <c r="E184" t="n">
-        <v>66.39</v>
+        <v>65</v>
       </c>
       <c r="F184" t="n">
-        <v>7.53</v>
+        <v>2546.9367</v>
       </c>
       <c r="G184" t="n">
-        <v>66.98366666666681</v>
+        <v>66.96050000000014</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7224,22 +7258,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>66.38</v>
+        <v>66.39</v>
       </c>
       <c r="C185" t="n">
-        <v>66.37</v>
+        <v>66.39</v>
       </c>
       <c r="D185" t="n">
-        <v>66.38</v>
+        <v>66.39</v>
       </c>
       <c r="E185" t="n">
-        <v>66.37</v>
+        <v>66.39</v>
       </c>
       <c r="F185" t="n">
-        <v>10499.7547</v>
+        <v>7.53</v>
       </c>
       <c r="G185" t="n">
-        <v>67.00650000000013</v>
+        <v>66.98366666666681</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7263,22 +7297,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>66.34999999999999</v>
+        <v>66.38</v>
       </c>
       <c r="C186" t="n">
-        <v>66.34999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="D186" t="n">
-        <v>66.34999999999999</v>
+        <v>66.38</v>
       </c>
       <c r="E186" t="n">
-        <v>66.34999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="F186" t="n">
-        <v>15.73474001507159</v>
+        <v>10499.7547</v>
       </c>
       <c r="G186" t="n">
-        <v>67.02883333333347</v>
+        <v>67.00650000000013</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7302,22 +7336,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>65.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>65.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>65.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>65.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>1171.1116</v>
+        <v>15.73474001507159</v>
       </c>
       <c r="G187" t="n">
-        <v>67.0321666666668</v>
+        <v>67.02883333333347</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7341,22 +7375,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>65.89</v>
+        <v>65.5</v>
       </c>
       <c r="C188" t="n">
-        <v>65.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D188" t="n">
-        <v>65.90000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E188" t="n">
-        <v>65.89</v>
+        <v>65.5</v>
       </c>
       <c r="F188" t="n">
-        <v>16300.4393</v>
+        <v>1171.1116</v>
       </c>
       <c r="G188" t="n">
-        <v>67.04066666666679</v>
+        <v>67.0321666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7383,19 +7417,19 @@
         <v>65.89</v>
       </c>
       <c r="C189" t="n">
-        <v>65.89</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>65.89</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E189" t="n">
         <v>65.89</v>
       </c>
       <c r="F189" t="n">
-        <v>476.351</v>
+        <v>16300.4393</v>
       </c>
       <c r="G189" t="n">
-        <v>67.04816666666679</v>
+        <v>67.04066666666679</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7419,22 +7453,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>65.90000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="C190" t="n">
-        <v>65.90000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="D190" t="n">
-        <v>65.90000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="E190" t="n">
-        <v>65.90000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="F190" t="n">
-        <v>4422.4606</v>
+        <v>476.351</v>
       </c>
       <c r="G190" t="n">
-        <v>67.0511666666668</v>
+        <v>67.04816666666679</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7458,22 +7492,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>65.64</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>65.59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>65.64</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>65.59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>7268.0985</v>
+        <v>4422.4606</v>
       </c>
       <c r="G191" t="n">
-        <v>67.0501666666668</v>
+        <v>67.0511666666668</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7497,22 +7531,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>65.31</v>
+        <v>65.64</v>
       </c>
       <c r="C192" t="n">
-        <v>65.2</v>
+        <v>65.59</v>
       </c>
       <c r="D192" t="n">
-        <v>65.31</v>
+        <v>65.64</v>
       </c>
       <c r="E192" t="n">
-        <v>65.2</v>
+        <v>65.59</v>
       </c>
       <c r="F192" t="n">
-        <v>17400.7838</v>
+        <v>7268.0985</v>
       </c>
       <c r="G192" t="n">
-        <v>67.05183333333346</v>
+        <v>67.0501666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7536,22 +7570,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>65.2</v>
+        <v>65.31</v>
       </c>
       <c r="C193" t="n">
         <v>65.2</v>
       </c>
       <c r="D193" t="n">
-        <v>65.2</v>
+        <v>65.31</v>
       </c>
       <c r="E193" t="n">
         <v>65.2</v>
       </c>
       <c r="F193" t="n">
-        <v>14905.9662</v>
+        <v>17400.7838</v>
       </c>
       <c r="G193" t="n">
-        <v>67.04300000000013</v>
+        <v>67.05183333333346</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7575,30 +7609,32 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>65.7</v>
+        <v>65.2</v>
       </c>
       <c r="C194" t="n">
-        <v>65.7</v>
+        <v>65.2</v>
       </c>
       <c r="D194" t="n">
-        <v>65.7</v>
+        <v>65.2</v>
       </c>
       <c r="E194" t="n">
-        <v>65.7</v>
+        <v>65.2</v>
       </c>
       <c r="F194" t="n">
-        <v>20539.2444</v>
+        <v>14905.9662</v>
       </c>
       <c r="G194" t="n">
-        <v>67.04250000000012</v>
+        <v>67.04300000000013</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>65.2</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7614,30 +7650,32 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="C195" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="D195" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="E195" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="F195" t="n">
-        <v>1091</v>
+        <v>20539.2444</v>
       </c>
       <c r="G195" t="n">
-        <v>67.04366666666679</v>
+        <v>67.04250000000012</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>65.2</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7653,30 +7691,32 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1091</v>
+      </c>
+      <c r="G196" t="n">
+        <v>67.04366666666679</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
         <v>65.7</v>
       </c>
-      <c r="C196" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="D196" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="E196" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="F196" t="n">
-        <v>305.7481</v>
-      </c>
-      <c r="G196" t="n">
-        <v>67.03316666666679</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7692,22 +7732,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="C197" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="D197" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="E197" t="n">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="F197" t="n">
-        <v>574.3807</v>
+        <v>305.7481</v>
       </c>
       <c r="G197" t="n">
-        <v>67.01666666666679</v>
+        <v>67.03316666666679</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7731,30 +7771,32 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>66.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="C198" t="n">
-        <v>65.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="D198" t="n">
-        <v>66.01000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E198" t="n">
-        <v>65.90000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F198" t="n">
-        <v>1744.093798151795</v>
+        <v>574.3807</v>
       </c>
       <c r="G198" t="n">
-        <v>67.00333333333347</v>
+        <v>67.01666666666679</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>65.7</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7770,22 +7812,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>65.90000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C199" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>65.90000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="E199" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="F199" t="n">
-        <v>1699.8117</v>
+        <v>1744.093798151795</v>
       </c>
       <c r="G199" t="n">
-        <v>67.00466666666679</v>
+        <v>67.00333333333347</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7809,22 +7851,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F200" t="n">
-        <v>20000</v>
+        <v>1699.8117</v>
       </c>
       <c r="G200" t="n">
-        <v>67.00600000000014</v>
+        <v>67.00466666666679</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7860,20 +7902,18 @@
         <v>65.8</v>
       </c>
       <c r="F201" t="n">
-        <v>4146.921</v>
+        <v>20000</v>
       </c>
       <c r="G201" t="n">
-        <v>67.00733333333348</v>
+        <v>67.00600000000014</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>65.8</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7901,20 +7941,18 @@
         <v>65.8</v>
       </c>
       <c r="F202" t="n">
-        <v>1816.3549</v>
+        <v>4146.921</v>
       </c>
       <c r="G202" t="n">
-        <v>66.99600000000015</v>
+        <v>67.00733333333348</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>65.8</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7930,22 +7968,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>66.2</v>
+        <v>65.8</v>
       </c>
       <c r="C203" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="D203" t="n">
-        <v>66.2</v>
+        <v>65.8</v>
       </c>
       <c r="E203" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="F203" t="n">
-        <v>2256.8814</v>
+        <v>1816.3549</v>
       </c>
       <c r="G203" t="n">
-        <v>66.99766666666682</v>
+        <v>66.99600000000015</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7972,19 +8010,19 @@
         <v>66.2</v>
       </c>
       <c r="C204" t="n">
-        <v>66.3</v>
+        <v>65.7</v>
       </c>
       <c r="D204" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E204" t="n">
-        <v>66.2</v>
+        <v>65.7</v>
       </c>
       <c r="F204" t="n">
-        <v>7911.4355</v>
+        <v>2256.8814</v>
       </c>
       <c r="G204" t="n">
-        <v>66.99783333333349</v>
+        <v>66.99766666666682</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8008,22 +8046,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="C205" t="n">
-        <v>66.56999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D205" t="n">
-        <v>66.56999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E205" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="F205" t="n">
-        <v>7804.4954</v>
+        <v>7911.4355</v>
       </c>
       <c r="G205" t="n">
-        <v>66.99433333333349</v>
+        <v>66.99783333333349</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8047,22 +8085,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="C206" t="n">
-        <v>66.3</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D206" t="n">
-        <v>66.3</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="F206" t="n">
-        <v>14895.5351</v>
+        <v>7804.4954</v>
       </c>
       <c r="G206" t="n">
-        <v>66.97933333333349</v>
+        <v>66.99433333333349</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8098,10 +8136,10 @@
         <v>66.3</v>
       </c>
       <c r="F207" t="n">
-        <v>7960.175</v>
+        <v>14895.5351</v>
       </c>
       <c r="G207" t="n">
-        <v>66.95950000000016</v>
+        <v>66.97933333333349</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8125,22 +8163,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>66.47</v>
+        <v>66.3</v>
       </c>
       <c r="C208" t="n">
-        <v>66.56999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D208" t="n">
-        <v>66.56999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E208" t="n">
-        <v>66.47</v>
+        <v>66.3</v>
       </c>
       <c r="F208" t="n">
-        <v>8138.9924</v>
+        <v>7960.175</v>
       </c>
       <c r="G208" t="n">
-        <v>66.95066666666683</v>
+        <v>66.95950000000016</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8164,22 +8202,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>66.56</v>
+        <v>66.47</v>
       </c>
       <c r="C209" t="n">
-        <v>66.56</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>66.56</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>66.56</v>
+        <v>66.47</v>
       </c>
       <c r="F209" t="n">
-        <v>2005</v>
+        <v>8138.9924</v>
       </c>
       <c r="G209" t="n">
-        <v>66.93500000000016</v>
+        <v>66.95066666666683</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8206,19 +8244,19 @@
         <v>66.56</v>
       </c>
       <c r="C210" t="n">
-        <v>66.56999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="D210" t="n">
-        <v>66.56999999999999</v>
+        <v>66.56</v>
       </c>
       <c r="E210" t="n">
-        <v>66.3</v>
+        <v>66.56</v>
       </c>
       <c r="F210" t="n">
-        <v>22671.2325</v>
+        <v>2005</v>
       </c>
       <c r="G210" t="n">
-        <v>66.90383333333349</v>
+        <v>66.93500000000016</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8242,22 +8280,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="C211" t="n">
         <v>66.56999999999999</v>
       </c>
-      <c r="C211" t="n">
-        <v>66.69</v>
-      </c>
       <c r="D211" t="n">
-        <v>66.69</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>66.56999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F211" t="n">
-        <v>14125.971</v>
+        <v>22671.2325</v>
       </c>
       <c r="G211" t="n">
-        <v>66.86450000000016</v>
+        <v>66.90383333333349</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8281,22 +8319,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>66.7</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="C212" t="n">
-        <v>66.7</v>
+        <v>66.69</v>
       </c>
       <c r="D212" t="n">
-        <v>66.7</v>
+        <v>66.69</v>
       </c>
       <c r="E212" t="n">
-        <v>66.7</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>4894.7732</v>
+        <v>14125.971</v>
       </c>
       <c r="G212" t="n">
-        <v>66.82533333333349</v>
+        <v>66.86450000000016</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8320,22 +8358,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>66.05</v>
+        <v>66.7</v>
       </c>
       <c r="C213" t="n">
-        <v>67.09</v>
+        <v>66.7</v>
       </c>
       <c r="D213" t="n">
-        <v>67.09</v>
+        <v>66.7</v>
       </c>
       <c r="E213" t="n">
-        <v>66.05</v>
+        <v>66.7</v>
       </c>
       <c r="F213" t="n">
-        <v>75889.3113</v>
+        <v>4894.7732</v>
       </c>
       <c r="G213" t="n">
-        <v>66.79266666666682</v>
+        <v>66.82533333333349</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8359,22 +8397,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>67.19</v>
+        <v>66.05</v>
       </c>
       <c r="C214" t="n">
-        <v>67.7</v>
+        <v>67.09</v>
       </c>
       <c r="D214" t="n">
-        <v>67.7</v>
+        <v>67.09</v>
       </c>
       <c r="E214" t="n">
-        <v>67.19</v>
+        <v>66.05</v>
       </c>
       <c r="F214" t="n">
-        <v>38346.225</v>
+        <v>75889.3113</v>
       </c>
       <c r="G214" t="n">
-        <v>66.77016666666682</v>
+        <v>66.79266666666682</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8398,22 +8436,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>68.79000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="C215" t="n">
-        <v>68.79000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="D215" t="n">
-        <v>68.79000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="E215" t="n">
-        <v>68.79000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="F215" t="n">
-        <v>10487.6069</v>
+        <v>38346.225</v>
       </c>
       <c r="G215" t="n">
-        <v>66.76583333333348</v>
+        <v>66.77016666666682</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8449,10 +8487,10 @@
         <v>68.79000000000001</v>
       </c>
       <c r="F216" t="n">
-        <v>61.5927</v>
+        <v>10487.6069</v>
       </c>
       <c r="G216" t="n">
-        <v>66.77066666666681</v>
+        <v>66.76583333333348</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8479,19 +8517,19 @@
         <v>68.79000000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>68.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D217" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="E217" t="n">
-        <v>67.91</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>8123.8895</v>
+        <v>61.5927</v>
       </c>
       <c r="G217" t="n">
-        <v>66.76550000000015</v>
+        <v>66.77066666666681</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8515,22 +8553,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>68.40000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>68.48999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>68.48999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E218" t="n">
-        <v>68.40000000000001</v>
+        <v>67.91</v>
       </c>
       <c r="F218" t="n">
-        <v>21665.03872035334</v>
+        <v>8123.8895</v>
       </c>
       <c r="G218" t="n">
-        <v>66.76516666666681</v>
+        <v>66.76550000000015</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8554,22 +8592,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C219" t="n">
-        <v>68.76000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D219" t="n">
-        <v>68.76000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F219" t="n">
-        <v>24244.4107</v>
+        <v>21665.03872035334</v>
       </c>
       <c r="G219" t="n">
-        <v>66.76033333333348</v>
+        <v>66.76516666666681</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8593,22 +8631,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>68.98999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C220" t="n">
-        <v>68.98999999999999</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>68.98999999999999</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>68.98999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="F220" t="n">
-        <v>4781.9149</v>
+        <v>24244.4107</v>
       </c>
       <c r="G220" t="n">
-        <v>66.77183333333348</v>
+        <v>66.76033333333348</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8638,16 +8676,16 @@
         <v>68.98999999999999</v>
       </c>
       <c r="D221" t="n">
-        <v>69.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="E221" t="n">
         <v>68.98999999999999</v>
       </c>
       <c r="F221" t="n">
-        <v>2385.007352208544</v>
+        <v>4781.9149</v>
       </c>
       <c r="G221" t="n">
-        <v>66.77100000000013</v>
+        <v>66.77183333333348</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8674,7 +8712,7 @@
         <v>68.98999999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>69.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="D222" t="n">
         <v>69.05</v>
@@ -8683,10 +8721,10 @@
         <v>68.98999999999999</v>
       </c>
       <c r="F222" t="n">
-        <v>3053.5454</v>
+        <v>2385.007352208544</v>
       </c>
       <c r="G222" t="n">
-        <v>66.77133333333346</v>
+        <v>66.77100000000013</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8710,7 +8748,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>69.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C223" t="n">
         <v>69.05</v>
@@ -8719,13 +8757,13 @@
         <v>69.05</v>
       </c>
       <c r="E223" t="n">
-        <v>69.05</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F223" t="n">
-        <v>14299.72899611875</v>
+        <v>3053.5454</v>
       </c>
       <c r="G223" t="n">
-        <v>66.77216666666681</v>
+        <v>66.77133333333346</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8749,22 +8787,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>69.14</v>
+        <v>69.05</v>
       </c>
       <c r="C224" t="n">
-        <v>69.5</v>
+        <v>69.05</v>
       </c>
       <c r="D224" t="n">
-        <v>69.5</v>
+        <v>69.05</v>
       </c>
       <c r="E224" t="n">
-        <v>69.14</v>
+        <v>69.05</v>
       </c>
       <c r="F224" t="n">
-        <v>767.0915</v>
+        <v>14299.72899611875</v>
       </c>
       <c r="G224" t="n">
-        <v>66.7971666666668</v>
+        <v>66.77216666666681</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8788,22 +8826,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>69.91</v>
+        <v>69.14</v>
       </c>
       <c r="C225" t="n">
-        <v>69.90000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D225" t="n">
-        <v>70</v>
+        <v>69.5</v>
       </c>
       <c r="E225" t="n">
-        <v>69.90000000000001</v>
+        <v>69.14</v>
       </c>
       <c r="F225" t="n">
-        <v>14801.4543</v>
+        <v>767.0915</v>
       </c>
       <c r="G225" t="n">
-        <v>66.82866666666681</v>
+        <v>66.7971666666668</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8827,22 +8865,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>69.91</v>
+      </c>
+      <c r="C226" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D226" t="n">
         <v>70</v>
       </c>
-      <c r="C226" t="n">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="D226" t="n">
-        <v>70.09999999999999</v>
-      </c>
       <c r="E226" t="n">
-        <v>68.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F226" t="n">
-        <v>104644.0138</v>
+        <v>14801.4543</v>
       </c>
       <c r="G226" t="n">
-        <v>66.86350000000013</v>
+        <v>66.82866666666681</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8866,22 +8904,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>70</v>
+      </c>
+      <c r="C227" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="C227" t="n">
-        <v>70.68000000000001</v>
-      </c>
       <c r="D227" t="n">
-        <v>70.68000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>70.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F227" t="n">
-        <v>1512.332170628183</v>
+        <v>104644.0138</v>
       </c>
       <c r="G227" t="n">
-        <v>66.90800000000011</v>
+        <v>66.86350000000013</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8905,69 +8943,75 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>70</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>68.08</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="D228" t="n">
-        <v>70.67</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="E228" t="n">
-        <v>68.08</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F228" t="n">
-        <v>47381.8468</v>
+        <v>1512.332170628183</v>
       </c>
       <c r="G228" t="n">
-        <v>66.90916666666678</v>
+        <v>66.90800000000011</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>68.79000000000001</v>
+        <v>70</v>
       </c>
       <c r="C229" t="n">
-        <v>68.48999999999999</v>
+        <v>68.08</v>
       </c>
       <c r="D229" t="n">
-        <v>68.79000000000001</v>
+        <v>70.67</v>
       </c>
       <c r="E229" t="n">
-        <v>68.48999999999999</v>
+        <v>68.08</v>
       </c>
       <c r="F229" t="n">
-        <v>5798.7817</v>
+        <v>47381.8468</v>
       </c>
       <c r="G229" t="n">
-        <v>66.91716666666677</v>
+        <v>66.90916666666678</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8977,22 +9021,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>68.20999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C230" t="n">
-        <v>68.06</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>68.20999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E230" t="n">
-        <v>68.06</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>13602.256</v>
+        <v>5798.7817</v>
       </c>
       <c r="G230" t="n">
-        <v>66.90166666666678</v>
+        <v>66.91716666666677</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9002,7 +9046,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9012,22 +9060,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>68</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C231" t="n">
-        <v>68</v>
+        <v>68.06</v>
       </c>
       <c r="D231" t="n">
-        <v>68</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>68</v>
+        <v>68.06</v>
       </c>
       <c r="F231" t="n">
-        <v>6100.9123</v>
+        <v>13602.256</v>
       </c>
       <c r="G231" t="n">
-        <v>66.90333333333345</v>
+        <v>66.90166666666678</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9037,7 +9085,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9047,22 +9099,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="C232" t="n">
-        <v>67.42</v>
+        <v>68</v>
       </c>
       <c r="D232" t="n">
-        <v>67.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="E232" t="n">
-        <v>67.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="F232" t="n">
-        <v>13877.6536</v>
+        <v>6100.9123</v>
       </c>
       <c r="G232" t="n">
-        <v>66.91366666666677</v>
+        <v>66.90333333333345</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9072,7 +9124,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9082,22 +9138,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="C233" t="n">
         <v>67.42</v>
       </c>
-      <c r="C233" t="n">
-        <v>68.08</v>
-      </c>
       <c r="D233" t="n">
-        <v>68.08</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E233" t="n">
-        <v>67.09</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F233" t="n">
-        <v>25285.6256</v>
+        <v>13877.6536</v>
       </c>
       <c r="G233" t="n">
-        <v>66.9350000000001</v>
+        <v>66.91366666666677</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9107,7 +9163,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9117,22 +9177,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>68.04000000000001</v>
+        <v>67.42</v>
       </c>
       <c r="C234" t="n">
-        <v>68.48</v>
+        <v>68.08</v>
       </c>
       <c r="D234" t="n">
-        <v>68.48</v>
+        <v>68.08</v>
       </c>
       <c r="E234" t="n">
-        <v>68.04000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="F234" t="n">
-        <v>25835.3279</v>
+        <v>25285.6256</v>
       </c>
       <c r="G234" t="n">
-        <v>66.96300000000011</v>
+        <v>66.9350000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9142,7 +9202,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9152,22 +9216,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>68.83</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="C235" t="n">
-        <v>68.3</v>
+        <v>68.48</v>
       </c>
       <c r="D235" t="n">
-        <v>68.84</v>
+        <v>68.48</v>
       </c>
       <c r="E235" t="n">
-        <v>68.3</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="F235" t="n">
-        <v>44666.7035</v>
+        <v>25835.3279</v>
       </c>
       <c r="G235" t="n">
-        <v>66.9880000000001</v>
+        <v>66.96300000000011</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9177,7 +9241,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9187,22 +9255,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>68.83</v>
+      </c>
+      <c r="C236" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D236" t="n">
         <v>68.84</v>
       </c>
-      <c r="C236" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="D236" t="n">
-        <v>68.90000000000001</v>
-      </c>
       <c r="E236" t="n">
-        <v>68.84</v>
+        <v>68.3</v>
       </c>
       <c r="F236" t="n">
-        <v>10011.308</v>
+        <v>44666.7035</v>
       </c>
       <c r="G236" t="n">
-        <v>67.02583333333344</v>
+        <v>66.9880000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9212,7 +9280,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9222,22 +9294,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>69.09999999999999</v>
+        <v>68.84</v>
       </c>
       <c r="C237" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D237" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E237" t="n">
-        <v>69.09999999999999</v>
+        <v>68.84</v>
       </c>
       <c r="F237" t="n">
-        <v>2993.9396</v>
+        <v>10011.308</v>
       </c>
       <c r="G237" t="n">
-        <v>67.0690000000001</v>
+        <v>67.02583333333344</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9247,7 +9319,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9269,10 +9345,10 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F238" t="n">
-        <v>578.8958</v>
+        <v>2993.9396</v>
       </c>
       <c r="G238" t="n">
-        <v>67.11233333333342</v>
+        <v>67.0690000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9282,7 +9358,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9304,10 +9384,10 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F239" t="n">
-        <v>40250.2044</v>
+        <v>578.8958</v>
       </c>
       <c r="G239" t="n">
-        <v>67.16400000000009</v>
+        <v>67.11233333333342</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9317,7 +9397,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9339,10 +9423,10 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>82</v>
+        <v>40250.2044</v>
       </c>
       <c r="G240" t="n">
-        <v>67.23233333333343</v>
+        <v>67.16400000000009</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9352,7 +9436,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9362,22 +9450,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C241" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>68.79000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F241" t="n">
-        <v>184.2353</v>
+        <v>82</v>
       </c>
       <c r="G241" t="n">
-        <v>67.2955000000001</v>
+        <v>67.23233333333343</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9387,7 +9475,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9397,22 +9489,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>69.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>69.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>69.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E242" t="n">
-        <v>69.09999999999999</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F242" t="n">
-        <v>2250</v>
+        <v>184.2353</v>
       </c>
       <c r="G242" t="n">
-        <v>67.36383333333343</v>
+        <v>67.2955000000001</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9422,7 +9514,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9444,10 +9540,10 @@
         <v>69.09999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>511.2395</v>
+        <v>2250</v>
       </c>
       <c r="G243" t="n">
-        <v>67.43216666666677</v>
+        <v>67.36383333333343</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9457,7 +9553,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9467,22 +9567,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>68.92</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C244" t="n">
-        <v>68.91</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>68.92</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>68.91</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>5614.7079</v>
+        <v>511.2395</v>
       </c>
       <c r="G244" t="n">
-        <v>67.47416666666678</v>
+        <v>67.43216666666677</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9492,7 +9592,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9502,22 +9606,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>68.98</v>
+        <v>68.92</v>
       </c>
       <c r="C245" t="n">
-        <v>68.55</v>
+        <v>68.91</v>
       </c>
       <c r="D245" t="n">
-        <v>68.98</v>
+        <v>68.92</v>
       </c>
       <c r="E245" t="n">
-        <v>68.55</v>
+        <v>68.91</v>
       </c>
       <c r="F245" t="n">
-        <v>17493.2381</v>
+        <v>5614.7079</v>
       </c>
       <c r="G245" t="n">
-        <v>67.51050000000011</v>
+        <v>67.47416666666678</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9527,7 +9631,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9537,22 +9645,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>68.15000000000001</v>
+        <v>68.98</v>
       </c>
       <c r="C246" t="n">
-        <v>69.2</v>
+        <v>68.55</v>
       </c>
       <c r="D246" t="n">
-        <v>69.2</v>
+        <v>68.98</v>
       </c>
       <c r="E246" t="n">
-        <v>68.14</v>
+        <v>68.55</v>
       </c>
       <c r="F246" t="n">
-        <v>10749.7547</v>
+        <v>17493.2381</v>
       </c>
       <c r="G246" t="n">
-        <v>67.55800000000011</v>
+        <v>67.51050000000011</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9562,7 +9670,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9572,22 +9684,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>68.48999999999999</v>
+        <v>68.15000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>68.48999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D247" t="n">
-        <v>68.48999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E247" t="n">
-        <v>68.48999999999999</v>
+        <v>68.14</v>
       </c>
       <c r="F247" t="n">
-        <v>1663</v>
+        <v>10749.7547</v>
       </c>
       <c r="G247" t="n">
-        <v>67.60783333333345</v>
+        <v>67.55800000000011</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9597,7 +9709,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9607,22 +9723,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>68.20999999999999</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="C248" t="n">
-        <v>68.13</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>68.20999999999999</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>68.13</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="F248" t="n">
-        <v>1138</v>
+        <v>1663</v>
       </c>
       <c r="G248" t="n">
-        <v>67.64500000000011</v>
+        <v>67.60783333333345</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9632,7 +9748,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9642,22 +9762,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>68.87</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="C249" t="n">
-        <v>68.87</v>
+        <v>68.13</v>
       </c>
       <c r="D249" t="n">
-        <v>68.87</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>68.87</v>
+        <v>68.13</v>
       </c>
       <c r="F249" t="n">
-        <v>362.6546</v>
+        <v>1138</v>
       </c>
       <c r="G249" t="n">
-        <v>67.69466666666679</v>
+        <v>67.64500000000011</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9667,7 +9787,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9677,22 +9801,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>68.64</v>
+        <v>68.87</v>
       </c>
       <c r="C250" t="n">
-        <v>68.64</v>
+        <v>68.87</v>
       </c>
       <c r="D250" t="n">
-        <v>68.64</v>
+        <v>68.87</v>
       </c>
       <c r="E250" t="n">
-        <v>68.64</v>
+        <v>68.87</v>
       </c>
       <c r="F250" t="n">
-        <v>4294.7823</v>
+        <v>362.6546</v>
       </c>
       <c r="G250" t="n">
-        <v>67.74033333333345</v>
+        <v>67.69466666666679</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9702,7 +9826,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9712,22 +9840,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>68.98999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="C251" t="n">
-        <v>69.09999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="D251" t="n">
-        <v>69.09999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="E251" t="n">
-        <v>68.98999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="F251" t="n">
-        <v>1731.3984</v>
+        <v>4294.7823</v>
       </c>
       <c r="G251" t="n">
-        <v>67.79883333333345</v>
+        <v>67.74033333333345</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9737,7 +9865,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9747,22 +9879,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>68.81999999999999</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C252" t="n">
-        <v>68.81</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>68.81999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>68.81</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>22742.7452</v>
+        <v>1731.3984</v>
       </c>
       <c r="G252" t="n">
-        <v>67.85900000000012</v>
+        <v>67.79883333333345</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9772,7 +9904,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9782,22 +9918,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>68.5</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>68.5</v>
+        <v>68.81</v>
       </c>
       <c r="D253" t="n">
-        <v>68.5</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="E253" t="n">
-        <v>68.5</v>
+        <v>68.81</v>
       </c>
       <c r="F253" t="n">
-        <v>3572.5837</v>
+        <v>22742.7452</v>
       </c>
       <c r="G253" t="n">
-        <v>67.91400000000013</v>
+        <v>67.85900000000012</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9807,7 +9943,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9817,22 +9957,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="C254" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="D254" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="E254" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="F254" t="n">
-        <v>628.3945</v>
+        <v>3572.5837</v>
       </c>
       <c r="G254" t="n">
-        <v>67.96400000000013</v>
+        <v>67.91400000000013</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9842,7 +9982,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9852,22 +9996,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>68.62</v>
+        <v>68.7</v>
       </c>
       <c r="C255" t="n">
-        <v>68.62</v>
+        <v>68.7</v>
       </c>
       <c r="D255" t="n">
-        <v>68.62</v>
+        <v>68.7</v>
       </c>
       <c r="E255" t="n">
-        <v>68.62</v>
+        <v>68.7</v>
       </c>
       <c r="F255" t="n">
-        <v>4904.8562</v>
+        <v>628.3945</v>
       </c>
       <c r="G255" t="n">
-        <v>68.01100000000012</v>
+        <v>67.96400000000013</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9877,7 +10021,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9899,10 +10047,10 @@
         <v>68.62</v>
       </c>
       <c r="F256" t="n">
-        <v>983.353</v>
+        <v>4904.8562</v>
       </c>
       <c r="G256" t="n">
-        <v>68.05966666666679</v>
+        <v>68.01100000000012</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9912,7 +10060,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9925,19 +10077,19 @@
         <v>68.62</v>
       </c>
       <c r="C257" t="n">
-        <v>68.25</v>
+        <v>68.62</v>
       </c>
       <c r="D257" t="n">
         <v>68.62</v>
       </c>
       <c r="E257" t="n">
-        <v>68.25</v>
+        <v>68.62</v>
       </c>
       <c r="F257" t="n">
-        <v>30023.4249</v>
+        <v>983.353</v>
       </c>
       <c r="G257" t="n">
-        <v>68.10050000000011</v>
+        <v>68.05966666666679</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9947,7 +10099,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9957,22 +10113,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>68.12</v>
+        <v>68.62</v>
       </c>
       <c r="C258" t="n">
-        <v>68.12</v>
+        <v>68.25</v>
       </c>
       <c r="D258" t="n">
-        <v>68.12</v>
+        <v>68.62</v>
       </c>
       <c r="E258" t="n">
-        <v>68.02</v>
+        <v>68.25</v>
       </c>
       <c r="F258" t="n">
-        <v>37808.7897</v>
+        <v>30023.4249</v>
       </c>
       <c r="G258" t="n">
-        <v>68.13750000000012</v>
+        <v>68.10050000000011</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9982,7 +10138,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +10155,7 @@
         <v>68.12</v>
       </c>
       <c r="C259" t="n">
-        <v>68.02</v>
+        <v>68.12</v>
       </c>
       <c r="D259" t="n">
         <v>68.12</v>
@@ -10004,10 +10164,10 @@
         <v>68.02</v>
       </c>
       <c r="F259" t="n">
-        <v>4816.5735</v>
+        <v>37808.7897</v>
       </c>
       <c r="G259" t="n">
-        <v>68.17283333333344</v>
+        <v>68.13750000000012</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10017,7 +10177,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10027,22 +10191,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>68.02</v>
+        <v>68.12</v>
       </c>
       <c r="C260" t="n">
         <v>68.02</v>
       </c>
       <c r="D260" t="n">
-        <v>68.02</v>
+        <v>68.12</v>
       </c>
       <c r="E260" t="n">
         <v>68.02</v>
       </c>
       <c r="F260" t="n">
-        <v>8810.140799999999</v>
+        <v>4816.5735</v>
       </c>
       <c r="G260" t="n">
-        <v>68.20983333333344</v>
+        <v>68.17283333333344</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10052,7 +10216,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10074,10 +10242,10 @@
         <v>68.02</v>
       </c>
       <c r="F261" t="n">
-        <v>21515.1544</v>
+        <v>8810.140799999999</v>
       </c>
       <c r="G261" t="n">
-        <v>68.24683333333344</v>
+        <v>68.20983333333344</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10087,7 +10255,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10109,10 +10281,10 @@
         <v>68.02</v>
       </c>
       <c r="F262" t="n">
-        <v>2347.9884</v>
+        <v>21515.1544</v>
       </c>
       <c r="G262" t="n">
-        <v>68.28383333333345</v>
+        <v>68.24683333333344</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10122,7 +10294,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10144,10 +10320,10 @@
         <v>68.02</v>
       </c>
       <c r="F263" t="n">
-        <v>1246.0757</v>
+        <v>2347.9884</v>
       </c>
       <c r="G263" t="n">
-        <v>68.32250000000013</v>
+        <v>68.28383333333345</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10157,7 +10333,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10167,22 +10347,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>68.09999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C264" t="n">
         <v>68.02</v>
       </c>
       <c r="D264" t="n">
-        <v>68.09999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E264" t="n">
         <v>68.02</v>
       </c>
       <c r="F264" t="n">
-        <v>1083.7161</v>
+        <v>1246.0757</v>
       </c>
       <c r="G264" t="n">
-        <v>68.3511666666668</v>
+        <v>68.32250000000013</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10192,7 +10372,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10202,22 +10386,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C265" t="n">
         <v>68.02</v>
       </c>
       <c r="D265" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E265" t="n">
         <v>68.02</v>
       </c>
       <c r="F265" t="n">
-        <v>609.196</v>
+        <v>1083.7161</v>
       </c>
       <c r="G265" t="n">
-        <v>68.37533333333347</v>
+        <v>68.3511666666668</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10227,7 +10411,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10249,10 +10437,10 @@
         <v>68.02</v>
       </c>
       <c r="F266" t="n">
-        <v>31382.2632</v>
+        <v>609.196</v>
       </c>
       <c r="G266" t="n">
-        <v>68.40400000000015</v>
+        <v>68.37533333333347</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10262,7 +10450,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10275,19 +10467,19 @@
         <v>68.02</v>
       </c>
       <c r="C267" t="n">
-        <v>68.09999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D267" t="n">
-        <v>68.09999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E267" t="n">
         <v>68.02</v>
       </c>
       <c r="F267" t="n">
-        <v>249</v>
+        <v>31382.2632</v>
       </c>
       <c r="G267" t="n">
-        <v>68.43400000000015</v>
+        <v>68.40400000000015</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10297,7 +10489,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10307,22 +10503,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>67.77</v>
+        <v>68.02</v>
       </c>
       <c r="C268" t="n">
-        <v>67.67</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D268" t="n">
-        <v>67.77</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E268" t="n">
-        <v>67.67</v>
+        <v>68.02</v>
       </c>
       <c r="F268" t="n">
-        <v>18589.229</v>
+        <v>249</v>
       </c>
       <c r="G268" t="n">
-        <v>68.45233333333348</v>
+        <v>68.43400000000015</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10332,7 +10528,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10342,22 +10542,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>67.78</v>
+        <v>67.77</v>
       </c>
       <c r="C269" t="n">
-        <v>67.78</v>
+        <v>67.67</v>
       </c>
       <c r="D269" t="n">
-        <v>67.78</v>
+        <v>67.77</v>
       </c>
       <c r="E269" t="n">
-        <v>67.78</v>
+        <v>67.67</v>
       </c>
       <c r="F269" t="n">
-        <v>52.1276</v>
+        <v>18589.229</v>
       </c>
       <c r="G269" t="n">
-        <v>68.47266666666681</v>
+        <v>68.45233333333348</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10367,7 +10567,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10377,22 +10581,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>67.67</v>
+        <v>67.78</v>
       </c>
       <c r="C270" t="n">
-        <v>67.40000000000001</v>
+        <v>67.78</v>
       </c>
       <c r="D270" t="n">
-        <v>67.67</v>
+        <v>67.78</v>
       </c>
       <c r="E270" t="n">
-        <v>67.40000000000001</v>
+        <v>67.78</v>
       </c>
       <c r="F270" t="n">
-        <v>9142.751200000001</v>
+        <v>52.1276</v>
       </c>
       <c r="G270" t="n">
-        <v>68.48650000000015</v>
+        <v>68.47266666666681</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10402,7 +10606,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10412,22 +10620,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>67.40000000000001</v>
+        <v>67.67</v>
       </c>
       <c r="C271" t="n">
         <v>67.40000000000001</v>
       </c>
       <c r="D271" t="n">
-        <v>67.40000000000001</v>
+        <v>67.67</v>
       </c>
       <c r="E271" t="n">
         <v>67.40000000000001</v>
       </c>
       <c r="F271" t="n">
-        <v>2367.5029</v>
+        <v>9142.751200000001</v>
       </c>
       <c r="G271" t="n">
-        <v>68.49833333333348</v>
+        <v>68.48650000000015</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10437,7 +10645,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10447,22 +10659,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C272" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D272" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E272" t="n">
-        <v>67.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F272" t="n">
-        <v>2764.5219</v>
+        <v>2367.5029</v>
       </c>
       <c r="G272" t="n">
-        <v>68.50833333333348</v>
+        <v>68.49833333333348</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10472,7 +10684,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10482,22 +10698,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>67.29000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C273" t="n">
-        <v>67.29000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D273" t="n">
-        <v>67.29000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E273" t="n">
-        <v>67.29000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="F273" t="n">
-        <v>230.2209</v>
+        <v>2764.5219</v>
       </c>
       <c r="G273" t="n">
-        <v>68.51166666666681</v>
+        <v>68.50833333333348</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10507,7 +10723,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10517,22 +10737,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C274" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D274" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="E274" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="F274" t="n">
-        <v>5000</v>
+        <v>230.2209</v>
       </c>
       <c r="G274" t="n">
-        <v>68.50816666666681</v>
+        <v>68.51166666666681</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10542,7 +10762,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10552,22 +10776,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>67.29000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C275" t="n">
-        <v>67.29000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D275" t="n">
-        <v>67.29000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>67.29000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F275" t="n">
-        <v>2376</v>
+        <v>5000</v>
       </c>
       <c r="G275" t="n">
-        <v>68.48316666666682</v>
+        <v>68.50816666666681</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10577,7 +10801,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10587,22 +10815,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>67.08</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C276" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D276" t="n">
-        <v>67.48999999999999</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="E276" t="n">
-        <v>67.03</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="F276" t="n">
-        <v>143088.7293</v>
+        <v>2376</v>
       </c>
       <c r="G276" t="n">
-        <v>68.46150000000014</v>
+        <v>68.48316666666682</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10612,7 +10840,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10622,22 +10854,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>67.08</v>
+      </c>
+      <c r="C277" t="n">
         <v>67.48999999999999</v>
       </c>
-      <c r="C277" t="n">
-        <v>67.5</v>
-      </c>
       <c r="D277" t="n">
-        <v>67.5</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E277" t="n">
-        <v>67.48999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="F277" t="n">
-        <v>118.529</v>
+        <v>143088.7293</v>
       </c>
       <c r="G277" t="n">
-        <v>68.45150000000014</v>
+        <v>68.46150000000014</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10647,7 +10879,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10657,22 +10893,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>67.90000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="C278" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D278" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E278" t="n">
-        <v>67.90000000000001</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>13394.6717</v>
+        <v>118.529</v>
       </c>
       <c r="G278" t="n">
-        <v>68.4416666666668</v>
+        <v>68.45150000000014</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10682,7 +10918,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10692,22 +10932,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C279" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D279" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F279" t="n">
-        <v>44007.8871</v>
+        <v>13394.6717</v>
       </c>
       <c r="G279" t="n">
-        <v>68.42900000000013</v>
+        <v>68.4416666666668</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10717,7 +10957,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10730,19 +10974,19 @@
         <v>68</v>
       </c>
       <c r="C280" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D280" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E280" t="n">
         <v>68</v>
       </c>
       <c r="F280" t="n">
-        <v>3673.6339</v>
+        <v>44007.8871</v>
       </c>
       <c r="G280" t="n">
-        <v>68.41416666666682</v>
+        <v>68.42900000000013</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10752,7 +10996,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10762,22 +11010,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>68</v>
+      </c>
+      <c r="C281" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="C281" t="n">
-        <v>68.44</v>
-      </c>
       <c r="D281" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="F281" t="n">
-        <v>285.2165</v>
+        <v>3673.6339</v>
       </c>
       <c r="G281" t="n">
-        <v>68.40500000000014</v>
+        <v>68.41416666666682</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10787,7 +11035,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10797,7 +11049,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C282" t="n">
         <v>68.44</v>
@@ -10806,13 +11058,13 @@
         <v>68.44</v>
       </c>
       <c r="E282" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>18088.9374</v>
+        <v>285.2165</v>
       </c>
       <c r="G282" t="n">
-        <v>68.39483333333347</v>
+        <v>68.40500000000014</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10822,7 +11074,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10844,10 +11100,10 @@
         <v>68.44</v>
       </c>
       <c r="F283" t="n">
-        <v>2628.22</v>
+        <v>18088.9374</v>
       </c>
       <c r="G283" t="n">
-        <v>68.38466666666679</v>
+        <v>68.39483333333347</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10857,7 +11113,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10879,10 +11139,10 @@
         <v>68.44</v>
       </c>
       <c r="F284" t="n">
-        <v>3305.688</v>
+        <v>2628.22</v>
       </c>
       <c r="G284" t="n">
-        <v>68.36700000000012</v>
+        <v>68.38466666666679</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10892,7 +11152,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10914,10 +11178,10 @@
         <v>68.44</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0001</v>
+        <v>3305.688</v>
       </c>
       <c r="G285" t="n">
-        <v>68.34266666666677</v>
+        <v>68.36700000000012</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10927,7 +11191,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10937,22 +11205,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>68.09999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="C286" t="n">
-        <v>68.09999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="D286" t="n">
-        <v>68.09999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="E286" t="n">
-        <v>68.09999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="F286" t="n">
-        <v>86.6559</v>
+        <v>0.0001</v>
       </c>
       <c r="G286" t="n">
-        <v>68.30933333333344</v>
+        <v>68.34266666666677</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10962,7 +11230,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10972,22 +11244,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C287" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="D287" t="n">
-        <v>68.44</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E287" t="n">
         <v>68.09999999999999</v>
       </c>
       <c r="F287" t="n">
-        <v>1028.0095</v>
+        <v>86.6559</v>
       </c>
       <c r="G287" t="n">
-        <v>68.26633333333345</v>
+        <v>68.30933333333344</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10997,7 +11269,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11007,22 +11283,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>68</v>
+        <v>68.44</v>
       </c>
       <c r="C288" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D288" t="n">
-        <v>68</v>
+        <v>68.44</v>
       </c>
       <c r="E288" t="n">
-        <v>68</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F288" t="n">
-        <v>700.7373</v>
+        <v>1028.0095</v>
       </c>
       <c r="G288" t="n">
-        <v>68.26500000000011</v>
+        <v>68.26633333333345</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11032,7 +11308,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11042,22 +11322,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>67.91</v>
+        <v>68</v>
       </c>
       <c r="C289" t="n">
-        <v>67.81</v>
+        <v>68</v>
       </c>
       <c r="D289" t="n">
-        <v>67.91</v>
+        <v>68</v>
       </c>
       <c r="E289" t="n">
-        <v>67.81</v>
+        <v>68</v>
       </c>
       <c r="F289" t="n">
-        <v>5843.052</v>
+        <v>700.7373</v>
       </c>
       <c r="G289" t="n">
-        <v>68.25366666666679</v>
+        <v>68.26500000000011</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11067,7 +11347,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11080,19 +11364,19 @@
         <v>67.91</v>
       </c>
       <c r="C290" t="n">
-        <v>67.91</v>
+        <v>67.81</v>
       </c>
       <c r="D290" t="n">
         <v>67.91</v>
       </c>
       <c r="E290" t="n">
-        <v>67.91</v>
+        <v>67.81</v>
       </c>
       <c r="F290" t="n">
-        <v>618.5432</v>
+        <v>5843.052</v>
       </c>
       <c r="G290" t="n">
-        <v>68.25116666666679</v>
+        <v>68.25366666666679</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11102,7 +11386,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11124,10 +11412,10 @@
         <v>67.91</v>
       </c>
       <c r="F291" t="n">
-        <v>4799.2879</v>
+        <v>618.5432</v>
       </c>
       <c r="G291" t="n">
-        <v>68.2496666666668</v>
+        <v>68.25116666666679</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11137,7 +11425,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11159,10 +11451,10 @@
         <v>67.91</v>
       </c>
       <c r="F292" t="n">
-        <v>65.5976</v>
+        <v>4799.2879</v>
       </c>
       <c r="G292" t="n">
-        <v>68.25783333333347</v>
+        <v>68.2496666666668</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11172,7 +11464,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11182,22 +11478,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>68</v>
+        <v>67.91</v>
       </c>
       <c r="C293" t="n">
-        <v>68</v>
+        <v>67.91</v>
       </c>
       <c r="D293" t="n">
-        <v>68</v>
+        <v>67.91</v>
       </c>
       <c r="E293" t="n">
-        <v>68</v>
+        <v>67.91</v>
       </c>
       <c r="F293" t="n">
-        <v>18.529</v>
+        <v>65.5976</v>
       </c>
       <c r="G293" t="n">
-        <v>68.25650000000013</v>
+        <v>68.25783333333347</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11207,7 +11503,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11217,22 +11517,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>68.45999999999999</v>
+        <v>68</v>
       </c>
       <c r="C294" t="n">
-        <v>68.45999999999999</v>
+        <v>68</v>
       </c>
       <c r="D294" t="n">
-        <v>68.45999999999999</v>
+        <v>68</v>
       </c>
       <c r="E294" t="n">
-        <v>68.45999999999999</v>
+        <v>68</v>
       </c>
       <c r="F294" t="n">
-        <v>56.6369</v>
+        <v>18.529</v>
       </c>
       <c r="G294" t="n">
-        <v>68.2561666666668</v>
+        <v>68.25650000000013</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11242,7 +11542,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11252,22 +11556,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>67.90000000000001</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C295" t="n">
-        <v>67.90000000000001</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>67.90000000000001</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>67.90000000000001</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="F295" t="n">
-        <v>467.175</v>
+        <v>56.6369</v>
       </c>
       <c r="G295" t="n">
-        <v>68.24950000000013</v>
+        <v>68.2561666666668</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11277,7 +11581,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11287,22 +11595,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C296" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D296" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E296" t="n">
-        <v>68</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F296" t="n">
-        <v>141.1498</v>
+        <v>467.175</v>
       </c>
       <c r="G296" t="n">
-        <v>68.23450000000012</v>
+        <v>68.24950000000013</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11312,7 +11620,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11322,22 +11634,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>68.58</v>
+        <v>68</v>
       </c>
       <c r="C297" t="n">
-        <v>68.58</v>
+        <v>68</v>
       </c>
       <c r="D297" t="n">
-        <v>68.58</v>
+        <v>68</v>
       </c>
       <c r="E297" t="n">
-        <v>68.58</v>
+        <v>68</v>
       </c>
       <c r="F297" t="n">
-        <v>7034.3036</v>
+        <v>141.1498</v>
       </c>
       <c r="G297" t="n">
-        <v>68.22583333333347</v>
+        <v>68.23450000000012</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11347,7 +11659,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11369,10 +11685,10 @@
         <v>68.58</v>
       </c>
       <c r="F298" t="n">
-        <v>5936.7023</v>
+        <v>7034.3036</v>
       </c>
       <c r="G298" t="n">
-        <v>68.21716666666681</v>
+        <v>68.22583333333347</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11382,7 +11698,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11398,16 +11718,16 @@
         <v>68.58</v>
       </c>
       <c r="D299" t="n">
-        <v>69.14</v>
+        <v>68.58</v>
       </c>
       <c r="E299" t="n">
         <v>68.58</v>
       </c>
       <c r="F299" t="n">
-        <v>55069.9247</v>
+        <v>5936.7023</v>
       </c>
       <c r="G299" t="n">
-        <v>68.20850000000014</v>
+        <v>68.21716666666681</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11417,7 +11737,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11427,22 +11751,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>68.7</v>
+        <v>68.58</v>
       </c>
       <c r="C300" t="n">
-        <v>68.7</v>
+        <v>68.58</v>
       </c>
       <c r="D300" t="n">
-        <v>68.7</v>
+        <v>69.14</v>
       </c>
       <c r="E300" t="n">
-        <v>68.7</v>
+        <v>68.58</v>
       </c>
       <c r="F300" t="n">
-        <v>459.9999</v>
+        <v>55069.9247</v>
       </c>
       <c r="G300" t="n">
-        <v>68.20183333333348</v>
+        <v>68.20850000000014</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11452,7 +11776,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11465,19 +11793,19 @@
         <v>68.7</v>
       </c>
       <c r="C301" t="n">
-        <v>68.58</v>
+        <v>68.7</v>
       </c>
       <c r="D301" t="n">
         <v>68.7</v>
       </c>
       <c r="E301" t="n">
-        <v>68.58</v>
+        <v>68.7</v>
       </c>
       <c r="F301" t="n">
-        <v>72909.8444</v>
+        <v>459.9999</v>
       </c>
       <c r="G301" t="n">
-        <v>68.19833333333349</v>
+        <v>68.20183333333348</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11487,8 +11815,51 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C302" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="D302" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="F302" t="n">
+        <v>72909.8444</v>
+      </c>
+      <c r="G302" t="n">
+        <v>68.19833333333349</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest ELF.xlsx
+++ b/BackTest/2020-01-16 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>13261.00111216608</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>13220.67861216608</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>62.24</v>
@@ -521,7 +521,7 @@
         <v>13220.67861216608</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>62</v>
@@ -562,7 +562,7 @@
         <v>13220.67861216608</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>62</v>
@@ -603,7 +603,7 @@
         <v>123778.3346121661</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>62</v>
@@ -917,11 +917,9 @@
         <v>53647.04141216608</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>64.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>62.24</v>
       </c>
@@ -958,11 +956,9 @@
         <v>221738.4758121661</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>64.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>62.24</v>
       </c>
@@ -999,11 +995,9 @@
         <v>243281.1851121661</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>62.24</v>
       </c>
@@ -1274,11 +1268,9 @@
         <v>185651.4397121661</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>63.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>62.24</v>
       </c>
@@ -1315,11 +1307,9 @@
         <v>90966.61741216606</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>65.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>62.24</v>
       </c>
@@ -1356,11 +1346,9 @@
         <v>85726.48471216606</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>62.24</v>
       </c>
@@ -1397,11 +1385,9 @@
         <v>85808.48471216606</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>63.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>62.24</v>
       </c>
@@ -1633,11 +1619,9 @@
         <v>19339.94801216605</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>63.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>62.24</v>
       </c>
@@ -1947,11 +1931,9 @@
         <v>32652.71591216605</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>62.24</v>
       </c>
@@ -4913,7 +4895,7 @@
         <v>736821.5457456756</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
@@ -4921,13 +4903,15 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>1.160167095115681</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.003870967741936</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4955,14 +4939,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4991,17 +4969,11 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5030,17 +5002,11 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +5038,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5108,17 +5068,11 @@
         <v>624697.9122268126</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5147,17 +5101,11 @@
         <v>622073.5654268125</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +5137,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5225,17 +5167,11 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5264,17 +5200,11 @@
         <v>647960.6551268125</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5303,17 +5233,11 @@
         <v>609438.7303268125</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5342,17 +5266,11 @@
         <v>590511.3995268125</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5381,17 +5299,11 @@
         <v>591136.3995268125</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5420,17 +5332,11 @@
         <v>577428.2004268125</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5459,17 +5365,11 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5498,17 +5398,11 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5537,17 +5431,11 @@
         <v>728005.8711268124</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5576,17 +5464,11 @@
         <v>707121.8903268124</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5615,17 +5497,11 @@
         <v>659984.1350268124</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5654,17 +5530,11 @@
         <v>664719.8322268125</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5693,17 +5563,11 @@
         <v>656719.8322268125</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5732,17 +5596,11 @@
         <v>609582.0768268125</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5771,17 +5629,11 @@
         <v>617118.4625268125</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5810,17 +5662,11 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5849,17 +5695,11 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5888,17 +5728,11 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5927,17 +5761,11 @@
         <v>596506.7484268125</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5966,17 +5794,11 @@
         <v>596506.7484268125</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6005,17 +5827,11 @@
         <v>595040.1508268125</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6044,17 +5860,11 @@
         <v>566890.7302268125</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6083,17 +5893,11 @@
         <v>568675.6867268125</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6122,17 +5926,11 @@
         <v>560493.4399268125</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6161,17 +5959,11 @@
         <v>515055.0275268125</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6200,17 +5992,11 @@
         <v>540123.1953268126</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6239,17 +6025,11 @@
         <v>536663.9807268126</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6278,17 +6058,11 @@
         <v>536663.9807268126</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6317,17 +6091,11 @@
         <v>548597.9794268126</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6356,17 +6124,11 @@
         <v>539494.7622268127</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6395,17 +6157,11 @@
         <v>539307.4061268127</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6434,17 +6190,11 @@
         <v>539270.3001268127</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6473,17 +6223,11 @@
         <v>539277.7001268127</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6512,17 +6256,11 @@
         <v>536116.9190268127</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6551,17 +6289,11 @@
         <v>533918.3875268126</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6590,17 +6322,11 @@
         <v>532167.7499268126</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6629,17 +6355,11 @@
         <v>448175.7900268126</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6668,17 +6388,11 @@
         <v>446209.9871268126</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6707,17 +6421,11 @@
         <v>416653.5769268126</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6746,17 +6454,11 @@
         <v>414881.7919268126</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6785,17 +6487,11 @@
         <v>414881.7919268126</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6824,17 +6520,11 @@
         <v>424231.3982268126</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6556,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6902,17 +6586,11 @@
         <v>424230.4726268126</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6941,17 +6619,11 @@
         <v>424230.4726268126</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6983,14 +6655,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7022,14 +6688,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7061,14 +6721,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7100,14 +6754,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6787,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6820,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +6853,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6886,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +6919,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6952,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +6985,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +7018,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +7051,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +7084,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +7117,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7150,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +7183,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7646,14 +7216,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7249,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7315,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7348,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7381,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7414,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7447,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7480,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +7513,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8036,14 +7546,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8075,14 +7579,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8114,14 +7612,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8153,14 +7645,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8192,14 +7678,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8231,14 +7711,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8270,14 +7744,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8309,14 +7777,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8348,14 +7810,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8387,14 +7843,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +7876,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7909,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +7942,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8543,14 +7975,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +8008,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8041,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8660,14 +8074,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8699,14 +8107,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +8140,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +8173,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8816,14 +8206,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8855,14 +8239,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8894,14 +8272,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8933,14 +8305,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8972,14 +8338,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9011,14 +8371,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8404,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9089,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9128,14 +8470,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9167,14 +8503,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9206,14 +8536,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9245,14 +8569,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9284,14 +8602,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9323,14 +8635,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9362,14 +8668,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9401,14 +8701,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9440,14 +8734,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9479,14 +8767,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9518,14 +8800,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9557,14 +8833,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9596,14 +8866,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9632,17 +8896,11 @@
         <v>955583.6545246353</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9674,14 +8932,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9710,17 +8962,11 @@
         <v>704660.2791246353</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9752,14 +8998,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9791,14 +9031,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9830,14 +9064,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9869,14 +9097,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9908,14 +9130,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9947,14 +9163,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9986,14 +9196,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +9229,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10061,17 +9259,11 @@
         <v>708805.2963846201</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10100,17 +9292,11 @@
         <v>713227.7569846201</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10139,17 +9325,11 @@
         <v>705959.6584846202</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10178,17 +9358,11 @@
         <v>688558.8746846202</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +9394,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10256,17 +9424,11 @@
         <v>709098.1190846201</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10298,14 +9460,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10337,14 +9493,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10376,14 +9526,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10412,17 +9556,11 @@
         <v>712201.845482772</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10451,17 +9589,11 @@
         <v>712201.845482772</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10490,17 +9622,11 @@
         <v>692201.845482772</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10532,14 +9658,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10568,17 +9688,11 @@
         <v>692201.845482772</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10610,14 +9724,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10649,14 +9757,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10688,14 +9790,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10727,14 +9823,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10766,14 +9856,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10805,14 +9889,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10844,14 +9922,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10883,14 +9955,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10922,14 +9988,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10961,14 +10021,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11000,14 +10054,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11039,14 +10087,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11078,14 +10120,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11117,14 +10153,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11156,14 +10186,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11195,14 +10219,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11234,14 +10252,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11270,23 +10282,15 @@
         <v>905881.9470031256</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
-        <v>1.103451156812339</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1.003870967741936</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11443,7 +10447,7 @@
         <v>924504.0382031255</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11476,7 +10480,7 @@
         <v>1029148.052003125</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11509,7 +10513,7 @@
         <v>1030660.384173754</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11542,7 +10546,7 @@
         <v>983278.5373737535</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11575,7 +10579,7 @@
         <v>989077.3190737535</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11608,7 +10612,7 @@
         <v>975475.0630737535</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11641,7 +10645,7 @@
         <v>969374.1507737535</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11674,7 +10678,7 @@
         <v>955496.4971737536</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11707,7 +10711,7 @@
         <v>980782.1227737536</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11740,7 +10744,7 @@
         <v>1006617.450673754</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11773,7 +10777,7 @@
         <v>961950.7471737536</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11806,7 +10810,7 @@
         <v>971962.0551737535</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11839,7 +10843,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11872,7 +10876,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11905,7 +10909,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11938,7 +10942,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11971,7 +10975,7 @@
         <v>974771.7594737536</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12004,7 +11008,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12037,7 +11041,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12070,7 +11074,7 @@
         <v>971407.0515737536</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12103,7 +11107,7 @@
         <v>953913.8134737536</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12136,7 +11140,7 @@
         <v>964663.5681737537</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12169,7 +11173,7 @@
         <v>963000.5681737537</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12202,7 +11206,7 @@
         <v>961862.5681737537</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12235,7 +11239,7 @@
         <v>962225.2227737537</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12268,7 +11272,7 @@
         <v>957930.4404737537</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12301,7 +11305,7 @@
         <v>959661.8388737537</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12334,7 +11338,7 @@
         <v>936919.0936737537</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12367,7 +11371,7 @@
         <v>933346.5099737537</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12400,7 +11404,7 @@
         <v>933974.9044737538</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12433,7 +11437,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12466,7 +11470,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12499,7 +11503,7 @@
         <v>899046.6233737537</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12565,7 +11569,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12598,7 +11602,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12631,7 +11635,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12664,7 +11668,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12697,7 +11701,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12730,7 +11734,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12763,7 +11767,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12796,7 +11800,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12829,7 +11833,7 @@
         <v>856670.2601737537</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12862,7 +11866,7 @@
         <v>838081.0311737537</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12895,7 +11899,7 @@
         <v>838133.1587737537</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12928,7 +11932,7 @@
         <v>828990.4075737536</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12961,7 +11965,7 @@
         <v>828990.4075737536</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12994,7 +11998,7 @@
         <v>826225.8856737536</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13027,7 +12031,7 @@
         <v>825995.6647737536</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13060,7 +12064,7 @@
         <v>830995.6647737536</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13093,7 +12097,7 @@
         <v>828619.6647737536</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13126,7 +12130,7 @@
         <v>971708.3940737536</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13159,7 +12163,7 @@
         <v>971826.9230737536</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13192,7 +12196,7 @@
         <v>985221.5947737535</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13225,7 +12229,7 @@
         <v>1029229.481873754</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13456,7 +12460,7 @@
         <v>1033101.676373754</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13522,7 +12526,7 @@
         <v>1032400.939073754</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13555,7 +12559,7 @@
         <v>1026557.887073754</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13588,7 +12592,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13621,7 +12625,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13654,7 +12658,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13687,7 +12691,7 @@
         <v>1027194.959273753</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13720,7 +12724,7 @@
         <v>1027251.596173753</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13753,7 +12757,7 @@
         <v>1026784.421173753</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13786,7 +12790,7 @@
         <v>1026925.570973753</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13819,7 +12823,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13852,7 +12856,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13885,7 +12889,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13918,7 +12922,7 @@
         <v>1034419.874473754</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13951,7 +12955,7 @@
         <v>961510.0300737536</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13984,7 +12988,7 @@
         <v>974592.1267737536</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14017,7 +13021,7 @@
         <v>974592.1267737536</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14050,7 +13054,7 @@
         <v>962742.1267737536</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14083,7 +13087,7 @@
         <v>956124.3529737536</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14116,7 +13120,7 @@
         <v>950154.6658737536</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14149,7 +13153,7 @@
         <v>950965.6688737536</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14182,7 +13186,7 @@
         <v>951620.5718737537</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14248,7 +13252,7 @@
         <v>957509.7858737537</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14281,7 +13285,7 @@
         <v>957959.7858737537</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14292,6 +13296,6 @@
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ELF.xlsx
+++ b/BackTest/2020-01-16 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>162167.004212166</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2056,13 +2056,15 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>1.058142673521851</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.003870967741936</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2087,17 +2089,11 @@
         <v>284862.579012166</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2126,17 +2122,11 @@
         <v>304182.647112166</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2165,17 +2155,11 @@
         <v>304182.647112166</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2204,17 +2188,11 @@
         <v>332641.079612166</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2243,17 +2221,11 @@
         <v>320280.079612166</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2282,17 +2254,11 @@
         <v>320280.079612166</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2290,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2360,17 +2320,11 @@
         <v>276731.4277234782</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2399,17 +2353,11 @@
         <v>212660.7068234782</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2389,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2480,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2488,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2554,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2587,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2714,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2719,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4001,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4079,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4118,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4157,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4235,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4274,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4313,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4352,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4391,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4430,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4469,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4547,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4586,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4625,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4664,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4703,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4742,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4781,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4820,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4859,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4895,23 +4465,15 @@
         <v>736821.5457456756</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>62.24</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>1.160167095115681</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.003870967741936</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4969,7 +4531,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5002,7 +4564,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5068,7 +4630,7 @@
         <v>624697.9122268126</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5101,7 +4663,7 @@
         <v>622073.5654268125</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5167,7 +4729,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5200,7 +4762,7 @@
         <v>647960.6551268125</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5233,7 +4795,7 @@
         <v>609438.7303268125</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5266,7 +4828,7 @@
         <v>590511.3995268125</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5299,7 +4861,7 @@
         <v>591136.3995268125</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5332,7 +4894,7 @@
         <v>577428.2004268125</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5365,7 +4927,7 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5398,7 +4960,7 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5431,7 +4993,7 @@
         <v>728005.8711268124</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5464,7 +5026,7 @@
         <v>707121.8903268124</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5497,7 +5059,7 @@
         <v>659984.1350268124</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5530,7 +5092,7 @@
         <v>664719.8322268125</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5563,7 +5125,7 @@
         <v>656719.8322268125</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5596,7 +5158,7 @@
         <v>609582.0768268125</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5629,7 +5191,7 @@
         <v>617118.4625268125</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5662,7 +5224,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5695,7 +5257,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5728,7 +5290,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5761,7 +5323,7 @@
         <v>596506.7484268125</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5794,7 +5356,7 @@
         <v>596506.7484268125</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5827,7 +5389,7 @@
         <v>595040.1508268125</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5860,7 +5422,7 @@
         <v>566890.7302268125</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5893,7 +5455,7 @@
         <v>568675.6867268125</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5926,7 +5488,7 @@
         <v>560493.4399268125</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5959,7 +5521,7 @@
         <v>515055.0275268125</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5992,7 +5554,7 @@
         <v>540123.1953268126</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6025,7 +5587,7 @@
         <v>536663.9807268126</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6058,7 +5620,7 @@
         <v>536663.9807268126</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6091,7 +5653,7 @@
         <v>548597.9794268126</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6124,7 +5686,7 @@
         <v>539494.7622268127</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6157,7 +5719,7 @@
         <v>539307.4061268127</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6190,7 +5752,7 @@
         <v>539270.3001268127</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6223,7 +5785,7 @@
         <v>539277.7001268127</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6256,7 +5818,7 @@
         <v>536116.9190268127</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6289,7 +5851,7 @@
         <v>533918.3875268126</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6322,7 +5884,7 @@
         <v>532167.7499268126</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6388,7 +5950,7 @@
         <v>446209.9871268126</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -8896,7 +8458,7 @@
         <v>955583.6545246353</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8962,7 +8524,7 @@
         <v>704660.2791246353</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9259,7 +8821,7 @@
         <v>708805.2963846201</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9292,7 +8854,7 @@
         <v>713227.7569846201</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9325,7 +8887,7 @@
         <v>705959.6584846202</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9358,7 +8920,7 @@
         <v>688558.8746846202</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9424,7 +8986,7 @@
         <v>709098.1190846201</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9556,7 +9118,7 @@
         <v>712201.845482772</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9589,7 +9151,7 @@
         <v>712201.845482772</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9622,7 +9184,7 @@
         <v>692201.845482772</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9688,7 +9250,7 @@
         <v>692201.845482772</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10711,7 +10273,7 @@
         <v>980782.1227737536</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10744,7 +10306,7 @@
         <v>1006617.450673754</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10777,7 +10339,7 @@
         <v>961950.7471737536</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10810,7 +10372,7 @@
         <v>971962.0551737535</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10843,7 +10405,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10876,7 +10438,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10909,7 +10471,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10942,7 +10504,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10975,7 +10537,7 @@
         <v>974771.7594737536</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11008,7 +10570,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11041,7 +10603,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11074,7 +10636,7 @@
         <v>971407.0515737536</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11107,7 +10669,7 @@
         <v>953913.8134737536</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11140,7 +10702,7 @@
         <v>964663.5681737537</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11173,7 +10735,7 @@
         <v>963000.5681737537</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11206,7 +10768,7 @@
         <v>961862.5681737537</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11239,7 +10801,7 @@
         <v>962225.2227737537</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11272,7 +10834,7 @@
         <v>957930.4404737537</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11305,7 +10867,7 @@
         <v>959661.8388737537</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11338,7 +10900,7 @@
         <v>936919.0936737537</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11371,7 +10933,7 @@
         <v>933346.5099737537</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11404,7 +10966,7 @@
         <v>933974.9044737538</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11437,7 +10999,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11470,7 +11032,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11503,7 +11065,7 @@
         <v>899046.6233737537</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11569,7 +11131,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11602,7 +11164,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11635,7 +11197,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11668,7 +11230,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11701,7 +11263,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11734,7 +11296,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11767,7 +11329,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11800,7 +11362,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11833,7 +11395,7 @@
         <v>856670.2601737537</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11866,7 +11428,7 @@
         <v>838081.0311737537</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11899,7 +11461,7 @@
         <v>838133.1587737537</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11932,7 +11494,7 @@
         <v>828990.4075737536</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11965,7 +11527,7 @@
         <v>828990.4075737536</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11998,7 +11560,7 @@
         <v>826225.8856737536</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12031,7 +11593,7 @@
         <v>825995.6647737536</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12064,7 +11626,7 @@
         <v>830995.6647737536</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12097,7 +11659,7 @@
         <v>828619.6647737536</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12130,7 +11692,7 @@
         <v>971708.3940737536</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12163,7 +11725,7 @@
         <v>971826.9230737536</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12196,7 +11758,7 @@
         <v>985221.5947737535</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12229,7 +11791,7 @@
         <v>1029229.481873754</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12460,7 +12022,7 @@
         <v>1033101.676373754</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12526,7 +12088,7 @@
         <v>1032400.939073754</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12559,7 +12121,7 @@
         <v>1026557.887073754</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12592,7 +12154,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12625,7 +12187,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12658,7 +12220,7 @@
         <v>1027176.430273753</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12691,7 +12253,7 @@
         <v>1027194.959273753</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12724,7 +12286,7 @@
         <v>1027251.596173753</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12757,7 +12319,7 @@
         <v>1026784.421173753</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12790,7 +12352,7 @@
         <v>1026925.570973753</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12823,7 +12385,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12856,7 +12418,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12889,7 +12451,7 @@
         <v>1033959.874573753</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12922,7 +12484,7 @@
         <v>1034419.874473754</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12955,7 +12517,7 @@
         <v>961510.0300737536</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12988,7 +12550,7 @@
         <v>974592.1267737536</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13021,7 +12583,7 @@
         <v>974592.1267737536</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13054,7 +12616,7 @@
         <v>962742.1267737536</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13087,7 +12649,7 @@
         <v>956124.3529737536</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13120,7 +12682,7 @@
         <v>950154.6658737536</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13153,7 +12715,7 @@
         <v>950965.6688737536</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13186,7 +12748,7 @@
         <v>951620.5718737537</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13252,7 +12814,7 @@
         <v>957509.7858737537</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13285,7 +12847,7 @@
         <v>957959.7858737537</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13296,6 +12858,6 @@
       <c r="M370" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ELF.xlsx
+++ b/BackTest/2020-01-16 BackTest ELF.xlsx
@@ -2048,7 +2048,7 @@
         <v>162167.004212166</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
@@ -2056,15 +2056,13 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.058142673521851</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.003870967741936</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2089,11 +2087,17 @@
         <v>284862.579012166</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +2126,17 @@
         <v>304182.647112166</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2165,17 @@
         <v>304182.647112166</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2204,17 @@
         <v>332641.079612166</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2243,17 @@
         <v>320280.079612166</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2282,17 @@
         <v>320280.079612166</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2290,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2320,11 +2360,17 @@
         <v>276731.4277234782</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2399,17 @@
         <v>212660.7068234782</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2389,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2422,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2455,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2488,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2521,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2554,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2587,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2620,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2653,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2686,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2719,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2752,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2785,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2818,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2851,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2884,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2917,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2950,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2983,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3016,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3049,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3115,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3148,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3181,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3214,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3247,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3280,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3313,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3346,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3379,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3412,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3445,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3478,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3511,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3544,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3577,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3610,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3643,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3676,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3709,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3742,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3775,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3808,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3841,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3874,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3907,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3940,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3973,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4006,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4039,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4072,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4138,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4171,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4270,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4300,15 +4700,23 @@
         <v>721360.3777456756</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>1.169967866323907</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.003870967741936</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4333,7 +4741,7 @@
         <v>695124.6440456756</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4366,7 +4774,7 @@
         <v>709531.7128456756</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4399,7 +4807,7 @@
         <v>713492.4319456756</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4432,7 +4840,7 @@
         <v>741652.9156456756</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4465,7 +4873,7 @@
         <v>736821.5457456756</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4498,7 +4906,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4531,7 +4939,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4564,7 +4972,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4597,7 +5005,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4630,7 +5038,7 @@
         <v>624697.9122268126</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4663,7 +5071,7 @@
         <v>622073.5654268125</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4696,7 +5104,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4729,7 +5137,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4762,7 +5170,7 @@
         <v>647960.6551268125</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4795,7 +5203,7 @@
         <v>609438.7303268125</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4828,7 +5236,7 @@
         <v>590511.3995268125</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4960,7 +5368,7 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4993,7 +5401,7 @@
         <v>728005.8711268124</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5026,7 +5434,7 @@
         <v>707121.8903268124</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5059,7 +5467,7 @@
         <v>659984.1350268124</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5092,7 +5500,7 @@
         <v>664719.8322268125</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5158,7 +5566,7 @@
         <v>609582.0768268125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5191,7 +5599,7 @@
         <v>617118.4625268125</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5224,7 +5632,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5257,7 +5665,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -10075,7 +10483,7 @@
         <v>1030660.384173754</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10108,7 +10516,7 @@
         <v>983278.5373737535</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10141,7 +10549,7 @@
         <v>989077.3190737535</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10438,7 +10846,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10471,7 +10879,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10504,7 +10912,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10537,7 +10945,7 @@
         <v>974771.7594737536</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10570,7 +10978,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10603,7 +11011,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10636,7 +11044,7 @@
         <v>971407.0515737536</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10669,7 +11077,7 @@
         <v>953913.8134737536</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10702,7 +11110,7 @@
         <v>964663.5681737537</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10735,7 +11143,7 @@
         <v>963000.5681737537</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10768,7 +11176,7 @@
         <v>961862.5681737537</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10801,7 +11209,7 @@
         <v>962225.2227737537</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10834,7 +11242,7 @@
         <v>957930.4404737537</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10867,7 +11275,7 @@
         <v>959661.8388737537</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10900,7 +11308,7 @@
         <v>936919.0936737537</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10933,7 +11341,7 @@
         <v>933346.5099737537</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10966,7 +11374,7 @@
         <v>933974.9044737538</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10999,7 +11407,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11065,7 +11473,7 @@
         <v>899046.6233737537</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
